--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/Potentially-Traumatic-Experiences-Ontology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkass\OneDrive\Documents\GitHub\Potentially-Traumatic-Experiences-Ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_4D883EFB004C680990877B494D40E59766A3D5C0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AA98FF0-77B8-4EC0-924C-55AFB6755A43}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2272039C-CAB3-4070-B4A8-3C37449F521B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="21360" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="130">
   <si>
     <t>Label</t>
   </si>
@@ -287,114 +287,16 @@
     <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
   </si>
   <si>
-    <t>CHECK WITH MHO</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>(a thing that happens, perceived by the person)  (process that is part of a personal history)</t>
-  </si>
-  <si>
     <t>potentially traumatic experience</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t xml:space="preserve">An </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>experience</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t xml:space="preserve"> that may result in xxxxx</t>
-    </r>
-  </si>
-  <si>
-    <t>chronic / repeated experience of a type of potentially traumatic event</t>
-  </si>
-  <si>
-    <t>single incident of a potentially traumatic event</t>
-  </si>
-  <si>
-    <t>potentially traumatic event in which the causal process involved human agency / intention to harm</t>
-  </si>
-  <si>
-    <t>potentially traumatic event that occurs without human agency / intention to harm</t>
-  </si>
-  <si>
-    <t>Direct personal experience of a potentially traumatic event (including witnessing???)</t>
-  </si>
-  <si>
-    <t>indirect experience of a potentially traumatic event - including hearing about ithe event or knowing it has happened to a loved one</t>
-  </si>
-  <si>
-    <t>TSO:000001</t>
-  </si>
-  <si>
     <t>accident experience</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t xml:space="preserve">A PTE in which, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>as a result of human or animal behaviour</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t xml:space="preserve">, damage is unintentionally caused to an object, or injury to a person or animal. -- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>Sudden occurrences that impact one or a few people and that involve actual (or potential) injury, without human intention to cause harm</t>
-    </r>
-  </si>
-  <si>
-    <t>Something that happens which causes potential or actual unintended harm.</t>
   </si>
   <si>
     <t>mishap</t>
   </si>
   <si>
     <t>NKA</t>
-  </si>
-  <si>
-    <t>TSO:000002</t>
   </si>
   <si>
     <t>road traffic accident</t>
@@ -428,9 +330,6 @@
       </rPr>
       <t xml:space="preserve"> which  occurs on or adjacent to a roadway.</t>
     </r>
-  </si>
-  <si>
-    <t>accident</t>
   </si>
   <si>
     <t>crash;  traffic accident</t>
@@ -667,9 +566,6 @@
     </r>
   </si>
   <si>
-    <t>fire</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -838,13 +734,7 @@
     <t>A PTE that is not the result of intentional harm and is a single or prolonged event and creates damage impacting large groups, communities, regions</t>
   </si>
   <si>
-    <t>PTE</t>
-  </si>
-  <si>
     <t>usually sudden-onset</t>
-  </si>
-  <si>
-    <t>natural disaster</t>
   </si>
   <si>
     <r>
@@ -875,9 +765,6 @@
       </rPr>
       <t xml:space="preserve"> in which the causal process involves forces or processes of nature (weather, earth)</t>
     </r>
-  </si>
-  <si>
-    <t>disaster</t>
   </si>
   <si>
     <t>earthquake</t>
@@ -1141,19 +1028,7 @@
     </r>
   </si>
   <si>
-    <t>technological disaster</t>
-  </si>
-  <si>
-    <t>transportation disaster</t>
-  </si>
-  <si>
-    <t>health-related events and experiences</t>
-  </si>
-  <si>
     <t>illness</t>
-  </si>
-  <si>
-    <t>medical event / experience</t>
   </si>
   <si>
     <t>injury</t>
@@ -1284,12 +1159,78 @@
   <si>
     <t>REL 'tso:experienceOf'</t>
   </si>
+  <si>
+    <t>personal history</t>
+  </si>
+  <si>
+    <t>personal history part</t>
+  </si>
+  <si>
+    <t>potentially traumatic experience attribute</t>
+  </si>
+  <si>
+    <t>a personal history part that is xxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an attribute of a potentially traumatic experience that may be related to time (chronicity, duration), causality (human vs not), directness / immediacy of person's exposure </t>
+  </si>
+  <si>
+    <t>BCIO:050487</t>
+  </si>
+  <si>
+    <t>A process that is part of a personal history.</t>
+  </si>
+  <si>
+    <t>BCIO:015161</t>
+  </si>
+  <si>
+    <t>A history that is of a person.</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>experienced event</t>
+  </si>
+  <si>
+    <t>PTEO: 000001</t>
+  </si>
+  <si>
+    <t>attributes include: chronic / repeated vs single / isolated experience; whether or not causal process involved human agency / intention to harm; direct vs indirect personal experience of an event (e.g. happened to me vs a loved one)</t>
+  </si>
+  <si>
+    <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
+  </si>
+  <si>
+    <t>Experience of an occurrence that impacts one or a few people and that involves actual (or potential) injury, without human intention to cause harm.</t>
+  </si>
+  <si>
+    <t>should this be PTE, personal history part, process?</t>
+  </si>
+  <si>
+    <t>health-related experience</t>
+  </si>
+  <si>
+    <t>natural disaster experience</t>
+  </si>
+  <si>
+    <t>technological disaster experience</t>
+  </si>
+  <si>
+    <t>transportation disaster experience</t>
+  </si>
+  <si>
+    <t>residential fire</t>
+  </si>
+  <si>
+    <t>wildfire</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1332,12 +1273,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1365,28 +1300,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri, sans-serif"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri, sans-serif"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri, sans-serif"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri, sans-serif"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1405,6 +1318,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri, sans-serif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1415,14 +1344,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1447,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1461,33 +1390,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,40 +1648,40 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI1027"/>
+  <dimension ref="A1:AI1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="63.42578125" customWidth="1"/>
-    <col min="16" max="16" width="33.42578125" customWidth="1"/>
-    <col min="17" max="17" width="27.140625" customWidth="1"/>
-    <col min="18" max="18" width="31.140625" customWidth="1"/>
-    <col min="19" max="19" width="34.85546875" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" customWidth="1"/>
-    <col min="21" max="21" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.73046875" customWidth="1"/>
+    <col min="2" max="2" width="30.265625" customWidth="1"/>
+    <col min="3" max="3" width="57.59765625" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="43.3984375" customWidth="1"/>
+    <col min="6" max="6" width="30.265625" customWidth="1"/>
+    <col min="7" max="8" width="22.265625" customWidth="1"/>
+    <col min="9" max="9" width="22.86328125" customWidth="1"/>
+    <col min="10" max="10" width="30.3984375" customWidth="1"/>
+    <col min="11" max="11" width="20.59765625" customWidth="1"/>
+    <col min="12" max="13" width="20.3984375" customWidth="1"/>
+    <col min="14" max="14" width="63.3984375" customWidth="1"/>
+    <col min="16" max="16" width="33.3984375" customWidth="1"/>
+    <col min="17" max="17" width="27.1328125" customWidth="1"/>
+    <col min="18" max="18" width="31.1328125" customWidth="1"/>
+    <col min="19" max="19" width="34.86328125" customWidth="1"/>
+    <col min="20" max="20" width="26.73046875" customWidth="1"/>
+    <col min="21" max="21" width="28.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="12.75">
+    <row r="1" spans="1:35" ht="13.15">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1754,13 +1696,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1775,7 +1717,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1787,19 +1729,19 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -1841,7 +1783,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1867,27 +1809,29 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="30">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
+    <row r="3" spans="1:35" ht="14.25">
+      <c r="A3" s="12" t="s">
+        <v>115</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
+      <c r="B3" s="13" t="s">
+        <v>108</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
+      <c r="C3" s="13" t="s">
+        <v>116</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="D3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1912,25 +1856,27 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
+    <row r="4" spans="1:35" ht="12.75">
+      <c r="A4" s="12" t="s">
+        <v>113</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
+      <c r="B4" s="13" t="s">
+        <v>109</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="C4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1955,13 +1901,19 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:35" ht="30">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6" t="s">
-        <v>22</v>
+    <row r="5" spans="1:35" ht="13.5">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1970,7 +1922,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1996,11 +1948,13 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" ht="15">
+    <row r="6" spans="1:35" ht="51">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
+      <c r="B6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2011,10 +1965,12 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -2037,22 +1993,30 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" ht="30">
+    <row r="7" spans="1:35" ht="51">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2060,7 +2024,9 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
@@ -2078,22 +2044,24 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" ht="30">
+    <row r="8" spans="1:35" ht="13.15">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -2101,7 +2069,9 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -2119,22 +2089,30 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" ht="30">
+    <row r="9" spans="1:35" ht="25.9">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2142,7 +2120,9 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="S9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -2160,13 +2140,17 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" ht="45">
+    <row r="10" spans="1:35" ht="25.9">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2175,7 +2159,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2183,7 +2167,9 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -2201,32 +2187,26 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" ht="71.25">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="11" spans="1:35" ht="25.9">
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2235,7 +2215,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -2254,26 +2234,26 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" ht="12.75">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
+    <row r="12" spans="1:35" ht="13.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
+      <c r="C12" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2282,7 +2262,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -2301,30 +2281,26 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" ht="25.5">
+    <row r="13" spans="1:35" ht="13.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2333,7 +2309,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -2352,16 +2328,16 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" ht="25.5">
+    <row r="14" spans="1:35" ht="13.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>44</v>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2371,7 +2347,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2380,7 +2356,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2399,16 +2375,16 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" ht="25.5">
+    <row r="15" spans="1:35" ht="13.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2418,7 +2394,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2427,7 +2403,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -2446,16 +2422,16 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" ht="12.75">
+    <row r="16" spans="1:35" ht="13.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2465,7 +2441,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2474,7 +2450,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -2493,16 +2469,16 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" ht="12.75">
+    <row r="17" spans="1:35" ht="13.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>50</v>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2512,7 +2488,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2521,7 +2497,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -2540,16 +2516,16 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" ht="12.75">
+    <row r="18" spans="1:35" ht="13.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>52</v>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2559,7 +2535,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2568,7 +2544,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -2587,18 +2563,20 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" ht="12.75">
+    <row r="19" spans="1:35" ht="38.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>54</v>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
+      <c r="D19" s="18" t="s">
+        <v>123</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2606,7 +2584,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2615,7 +2593,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -2634,16 +2612,16 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" ht="12.75">
+    <row r="20" spans="1:35" ht="25.9">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2653,7 +2631,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2662,7 +2640,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -2681,16 +2659,16 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="12.75">
+    <row r="21" spans="1:35" ht="13.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>58</v>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2700,7 +2678,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2709,7 +2687,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -2728,16 +2706,16 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" ht="12.75">
+    <row r="22" spans="1:35" ht="13.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>60</v>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2747,7 +2725,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2756,7 +2734,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2775,20 +2753,18 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" ht="38.25">
+    <row r="23" spans="1:35" ht="13.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>62</v>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2796,7 +2772,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2805,7 +2781,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2824,16 +2800,16 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" ht="25.5">
+    <row r="24" spans="1:35" ht="13.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2843,7 +2819,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2852,7 +2828,7 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2871,16 +2847,16 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" ht="12.75">
+    <row r="25" spans="1:35" ht="13.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2890,7 +2866,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2899,7 +2875,7 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -2918,16 +2894,16 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" ht="12.75">
+    <row r="26" spans="1:35" ht="13.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2937,7 +2913,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -2946,7 +2922,7 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -2965,16 +2941,16 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" ht="12.75">
+    <row r="27" spans="1:35" ht="13.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2984,7 +2960,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -2993,7 +2969,7 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -3012,16 +2988,16 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" ht="12.75">
+    <row r="28" spans="1:35" ht="13.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3031,7 +3007,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3040,7 +3016,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -3062,13 +3038,11 @@
     <row r="29" spans="1:35" ht="12.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>76</v>
-      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3078,7 +3052,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3087,7 +3061,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3109,13 +3083,11 @@
     <row r="30" spans="1:35" ht="12.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3125,7 +3097,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3134,7 +3106,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -3153,16 +3125,14 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" ht="12.75">
+    <row r="31" spans="1:35" ht="38.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>79</v>
+      <c r="B31" s="19" t="s">
+        <v>124</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>65</v>
+      <c r="C31" s="2"/>
+      <c r="D31" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -3172,7 +3142,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3181,7 +3151,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -3200,16 +3170,14 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" ht="12.75">
+    <row r="32" spans="1:35" ht="25.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>65</v>
+      <c r="C32" s="2"/>
+      <c r="D32" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -3219,7 +3187,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3228,7 +3196,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -3247,14 +3215,14 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" ht="12.75">
+    <row r="33" spans="1:35" ht="25.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>67</v>
+      <c r="D33" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3264,7 +3232,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3273,7 +3241,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -3292,14 +3260,14 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" ht="12.75">
+    <row r="34" spans="1:35" ht="25.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>67</v>
+      <c r="D34" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3309,7 +3277,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -3318,7 +3286,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -3337,14 +3305,14 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" ht="25.5">
+    <row r="35" spans="1:35" ht="38.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="9" t="s">
-        <v>85</v>
+      <c r="B35" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
+      <c r="D35" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3354,7 +3322,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -3363,7 +3331,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
@@ -3382,14 +3350,16 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" ht="25.5">
+    <row r="36" spans="1:35" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>86</v>
+      <c r="B36" s="7" t="s">
+        <v>68</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>87</v>
+      <c r="C36" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3399,7 +3369,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -3407,9 +3377,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
@@ -3427,15 +3395,13 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" ht="25.5">
+    <row r="37" spans="1:35" ht="38.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>88</v>
+      <c r="B37" s="8" t="s">
+        <v>70</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3444,7 +3410,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -3452,9 +3418,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -3472,14 +3436,16 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" ht="25.5">
+    <row r="38" spans="1:35" ht="38.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>89</v>
+      <c r="B38" s="7" t="s">
+        <v>71</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>87</v>
+      <c r="C38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3489,7 +3455,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -3497,9 +3463,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
@@ -3517,15 +3481,13 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" ht="12.75">
+    <row r="39" spans="1:35" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="8" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3534,7 +3496,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -3542,9 +3504,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -3562,16 +3522,16 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" ht="15.75" customHeight="1">
+    <row r="40" spans="1:35" ht="38.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="10" t="s">
-        <v>91</v>
+      <c r="B40" s="7" t="s">
+        <v>74</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>92</v>
+      <c r="C40" s="9" t="s">
+        <v>75</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>12</v>
+      <c r="D40" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -3581,7 +3541,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -3609,8 +3569,8 @@
     </row>
     <row r="41" spans="1:35" ht="38.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="12" t="s">
-        <v>93</v>
+      <c r="B41" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="2"/>
@@ -3622,7 +3582,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -3648,16 +3608,16 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" ht="25.5">
+    <row r="42" spans="1:35" ht="38.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="10" t="s">
-        <v>94</v>
+      <c r="B42" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
+      <c r="D42" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -3667,7 +3627,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -3693,12 +3653,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" ht="15.75" customHeight="1">
+    <row r="43" spans="1:35" ht="25.5">
       <c r="A43" s="2"/>
-      <c r="B43" s="12" t="s">
-        <v>96</v>
+      <c r="B43" s="8" t="s">
+        <v>79</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3708,7 +3668,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -3734,16 +3694,14 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="25.5">
+    <row r="44" spans="1:35" ht="38.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="10" t="s">
-        <v>97</v>
+      <c r="B44" s="7" t="s">
+        <v>80</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>12</v>
+      <c r="C44" s="2"/>
+      <c r="D44" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3753,7 +3711,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -3779,12 +3737,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" ht="51">
+    <row r="45" spans="1:35" ht="63.75">
       <c r="A45" s="2"/>
-      <c r="B45" s="12" t="s">
-        <v>99</v>
+      <c r="B45" s="8" t="s">
+        <v>81</v>
       </c>
-      <c r="C45" s="13"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3794,7 +3752,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -3820,16 +3778,14 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" ht="15">
+    <row r="46" spans="1:35" ht="38.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="10" t="s">
-        <v>100</v>
+      <c r="B46" s="7" t="s">
+        <v>82</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>12</v>
+      <c r="C46" s="2"/>
+      <c r="D46" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3839,7 +3795,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -3865,10 +3821,10 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" ht="25.5">
+    <row r="47" spans="1:35" ht="63.75">
       <c r="A47" s="2"/>
-      <c r="B47" s="12" t="s">
-        <v>102</v>
+      <c r="B47" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3880,7 +3836,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -3906,14 +3862,14 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" ht="12.75">
+    <row r="48" spans="1:35" ht="38.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="10" t="s">
-        <v>103</v>
+      <c r="B48" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
+      <c r="D48" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3923,7 +3879,7 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -3949,10 +3905,10 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" ht="63.75">
+    <row r="49" spans="1:35" ht="25.5">
       <c r="A49" s="2"/>
-      <c r="B49" s="12" t="s">
-        <v>104</v>
+      <c r="B49" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3964,7 +3920,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -3990,14 +3946,14 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" ht="12.75">
+    <row r="50" spans="1:35" ht="38.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="10" t="s">
-        <v>105</v>
+      <c r="B50" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
+      <c r="D50" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -4007,7 +3963,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -4033,10 +3989,10 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" ht="63.75">
+    <row r="51" spans="1:35" ht="51">
       <c r="A51" s="2"/>
-      <c r="B51" s="12" t="s">
-        <v>106</v>
+      <c r="B51" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -4048,7 +4004,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -4074,14 +4030,14 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" ht="12.75">
+    <row r="52" spans="1:35" ht="38.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="10" t="s">
-        <v>107</v>
+      <c r="B52" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
+      <c r="D52" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -4091,7 +4047,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -4119,8 +4075,8 @@
     </row>
     <row r="53" spans="1:35" ht="25.5">
       <c r="A53" s="2"/>
-      <c r="B53" s="12" t="s">
-        <v>108</v>
+      <c r="B53" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -4132,7 +4088,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -4160,13 +4116,9 @@
     </row>
     <row r="54" spans="1:35" ht="12.75">
       <c r="A54" s="2"/>
-      <c r="B54" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -4174,9 +4126,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -4201,11 +4151,9 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" ht="63.75">
+    <row r="55" spans="1:35" ht="12.75">
       <c r="A55" s="2"/>
-      <c r="B55" s="12" t="s">
-        <v>110</v>
-      </c>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -4215,9 +4163,7 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -4244,13 +4190,9 @@
     </row>
     <row r="56" spans="1:35" ht="12.75">
       <c r="A56" s="2"/>
-      <c r="B56" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -4258,9 +4200,7 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -4285,11 +4225,9 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" ht="25.5">
+    <row r="57" spans="1:35" ht="12.75">
       <c r="A57" s="2"/>
-      <c r="B57" s="12" t="s">
-        <v>112</v>
-      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -4299,9 +4237,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -40068,154 +40004,6 @@
       <c r="AH1023" s="2"/>
       <c r="AI1023" s="2"/>
     </row>
-    <row r="1024" spans="1:35" ht="12.75">
-      <c r="A1024" s="2"/>
-      <c r="B1024" s="2"/>
-      <c r="C1024" s="2"/>
-      <c r="D1024" s="2"/>
-      <c r="E1024" s="2"/>
-      <c r="F1024" s="2"/>
-      <c r="G1024" s="2"/>
-      <c r="H1024" s="2"/>
-      <c r="I1024" s="2"/>
-      <c r="J1024" s="2"/>
-      <c r="K1024" s="2"/>
-      <c r="L1024" s="2"/>
-      <c r="M1024" s="2"/>
-      <c r="N1024" s="2"/>
-      <c r="O1024" s="2"/>
-      <c r="P1024" s="2"/>
-      <c r="Q1024" s="2"/>
-      <c r="R1024" s="2"/>
-      <c r="S1024" s="2"/>
-      <c r="T1024" s="2"/>
-      <c r="U1024" s="2"/>
-      <c r="V1024" s="2"/>
-      <c r="W1024" s="2"/>
-      <c r="X1024" s="2"/>
-      <c r="Y1024" s="2"/>
-      <c r="Z1024" s="2"/>
-      <c r="AA1024" s="2"/>
-      <c r="AB1024" s="2"/>
-      <c r="AC1024" s="2"/>
-      <c r="AD1024" s="2"/>
-      <c r="AE1024" s="2"/>
-      <c r="AF1024" s="2"/>
-      <c r="AG1024" s="2"/>
-      <c r="AH1024" s="2"/>
-      <c r="AI1024" s="2"/>
-    </row>
-    <row r="1025" spans="1:35" ht="12.75">
-      <c r="A1025" s="2"/>
-      <c r="B1025" s="2"/>
-      <c r="C1025" s="2"/>
-      <c r="D1025" s="2"/>
-      <c r="E1025" s="2"/>
-      <c r="F1025" s="2"/>
-      <c r="G1025" s="2"/>
-      <c r="H1025" s="2"/>
-      <c r="I1025" s="2"/>
-      <c r="J1025" s="2"/>
-      <c r="K1025" s="2"/>
-      <c r="L1025" s="2"/>
-      <c r="M1025" s="2"/>
-      <c r="N1025" s="2"/>
-      <c r="O1025" s="2"/>
-      <c r="P1025" s="2"/>
-      <c r="Q1025" s="2"/>
-      <c r="R1025" s="2"/>
-      <c r="S1025" s="2"/>
-      <c r="T1025" s="2"/>
-      <c r="U1025" s="2"/>
-      <c r="V1025" s="2"/>
-      <c r="W1025" s="2"/>
-      <c r="X1025" s="2"/>
-      <c r="Y1025" s="2"/>
-      <c r="Z1025" s="2"/>
-      <c r="AA1025" s="2"/>
-      <c r="AB1025" s="2"/>
-      <c r="AC1025" s="2"/>
-      <c r="AD1025" s="2"/>
-      <c r="AE1025" s="2"/>
-      <c r="AF1025" s="2"/>
-      <c r="AG1025" s="2"/>
-      <c r="AH1025" s="2"/>
-      <c r="AI1025" s="2"/>
-    </row>
-    <row r="1026" spans="1:35" ht="12.75">
-      <c r="A1026" s="2"/>
-      <c r="B1026" s="2"/>
-      <c r="C1026" s="2"/>
-      <c r="D1026" s="2"/>
-      <c r="E1026" s="2"/>
-      <c r="F1026" s="2"/>
-      <c r="G1026" s="2"/>
-      <c r="H1026" s="2"/>
-      <c r="I1026" s="2"/>
-      <c r="J1026" s="2"/>
-      <c r="K1026" s="2"/>
-      <c r="L1026" s="2"/>
-      <c r="M1026" s="2"/>
-      <c r="N1026" s="2"/>
-      <c r="O1026" s="2"/>
-      <c r="P1026" s="2"/>
-      <c r="Q1026" s="2"/>
-      <c r="R1026" s="2"/>
-      <c r="S1026" s="2"/>
-      <c r="T1026" s="2"/>
-      <c r="U1026" s="2"/>
-      <c r="V1026" s="2"/>
-      <c r="W1026" s="2"/>
-      <c r="X1026" s="2"/>
-      <c r="Y1026" s="2"/>
-      <c r="Z1026" s="2"/>
-      <c r="AA1026" s="2"/>
-      <c r="AB1026" s="2"/>
-      <c r="AC1026" s="2"/>
-      <c r="AD1026" s="2"/>
-      <c r="AE1026" s="2"/>
-      <c r="AF1026" s="2"/>
-      <c r="AG1026" s="2"/>
-      <c r="AH1026" s="2"/>
-      <c r="AI1026" s="2"/>
-    </row>
-    <row r="1027" spans="1:35" ht="12.75">
-      <c r="A1027" s="2"/>
-      <c r="B1027" s="2"/>
-      <c r="C1027" s="2"/>
-      <c r="D1027" s="2"/>
-      <c r="E1027" s="2"/>
-      <c r="F1027" s="2"/>
-      <c r="G1027" s="2"/>
-      <c r="H1027" s="2"/>
-      <c r="I1027" s="2"/>
-      <c r="J1027" s="2"/>
-      <c r="K1027" s="2"/>
-      <c r="L1027" s="2"/>
-      <c r="M1027" s="2"/>
-      <c r="N1027" s="2"/>
-      <c r="O1027" s="2"/>
-      <c r="P1027" s="2"/>
-      <c r="Q1027" s="2"/>
-      <c r="R1027" s="2"/>
-      <c r="S1027" s="2"/>
-      <c r="T1027" s="2"/>
-      <c r="U1027" s="2"/>
-      <c r="V1027" s="2"/>
-      <c r="W1027" s="2"/>
-      <c r="X1027" s="2"/>
-      <c r="Y1027" s="2"/>
-      <c r="Z1027" s="2"/>
-      <c r="AA1027" s="2"/>
-      <c r="AB1027" s="2"/>
-      <c r="AC1027" s="2"/>
-      <c r="AD1027" s="2"/>
-      <c r="AE1027" s="2"/>
-      <c r="AF1027" s="2"/>
-      <c r="AG1027" s="2"/>
-      <c r="AH1027" s="2"/>
-      <c r="AI1027" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576" xr:uid="{2041863A-7358-43B7-AF7D-23080F64E586}"/>
@@ -40237,66 +40025,66 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.265625" customWidth="1"/>
+    <col min="2" max="2" width="31.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="14" t="s">
-        <v>113</v>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>90</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>114</v>
+      <c r="B1" s="10" t="s">
+        <v>91</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="15" t="s">
-        <v>115</v>
+      <c r="A2" s="11" t="s">
+        <v>92</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>116</v>
+      <c r="B2" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="15" t="s">
-        <v>33</v>
+      <c r="A3" s="11" t="s">
+        <v>20</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>117</v>
+      <c r="B3" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="15" t="s">
-        <v>118</v>
+      <c r="A4" s="11" t="s">
+        <v>95</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>119</v>
+      <c r="B4" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkass\OneDrive\Documents\GitHub\Potentially-Traumatic-Experiences-Ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2272039C-CAB3-4070-B4A8-3C37449F521B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51E0F9D-E478-419D-93F1-B085E69C400B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="21360" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="353" yWindow="368" windowWidth="20939" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>Label</t>
   </si>
@@ -299,811 +299,7 @@
     <t>NKA</t>
   </si>
   <si>
-    <t>road traffic accident</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">An </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> which  occurs on or adjacent to a roadway.</t>
-    </r>
-  </si>
-  <si>
-    <t>crash;  traffic accident</t>
-  </si>
-  <si>
-    <t>motor vehicle accident</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>road traffic</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves one or more moving vehicles. </t>
-    </r>
-  </si>
-  <si>
-    <t>A collision involving a moving motor vehicle that causes damage or injury.</t>
-  </si>
-  <si>
-    <t>car crash; motor vehicle accident; vehicle accident</t>
-  </si>
-  <si>
-    <t>bicycle accident</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>road traffic</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves a bicycle (including electric bicycles) </t>
-    </r>
-  </si>
-  <si>
-    <t>pedestrian accident</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>road traffic</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which a person walking on or near a roadway is (harmed? impacted?). </t>
-    </r>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">An </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves xxxx</t>
-    </r>
-  </si>
-  <si>
-    <t>animal attack ???</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">An </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves xxxx</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">An </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves xxxx</t>
-    </r>
-  </si>
-  <si>
-    <t>sports-related incident</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">An </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves xxxx</t>
-    </r>
-  </si>
-  <si>
-    <t>weapon-related (unintentional)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">An </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves xxxx</t>
-    </r>
-  </si>
-  <si>
-    <t>choking</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">An </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves xxxx</t>
-    </r>
-  </si>
-  <si>
-    <t>drowning</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">An </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>accident</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves xxxx</t>
-    </r>
-  </si>
-  <si>
     <t>disaster experience</t>
-  </si>
-  <si>
-    <t>A PTE that is not the result of intentional harm and is a single or prolonged event and creates damage impacting large groups, communities, regions</t>
-  </si>
-  <si>
-    <t>usually sudden-onset</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>disaster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves forces or processes of nature (weather, earth)</t>
-    </r>
-  </si>
-  <si>
-    <t>earthquake</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>natural disaster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>natural disaster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves</t>
-    </r>
-  </si>
-  <si>
-    <t>flood</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>natural disaster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves</t>
-    </r>
-  </si>
-  <si>
-    <t>hurricane or cyclone</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>natural disaster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves</t>
-    </r>
-  </si>
-  <si>
-    <t>tornado</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>natural disaster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves</t>
-    </r>
-  </si>
-  <si>
-    <t>landslide</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>natural disaster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves</t>
-    </r>
-  </si>
-  <si>
-    <t>tsunami</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>natural disaster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves</t>
-    </r>
-  </si>
-  <si>
-    <t>volcanic eruption</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>natural disaster</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> in which the causal process involves</t>
-    </r>
-  </si>
-  <si>
-    <t>illness</t>
-  </si>
-  <si>
-    <t>injury</t>
-  </si>
-  <si>
-    <t>medical treatment / procedures</t>
-  </si>
-  <si>
-    <t>bereavement / death of a loved one</t>
-  </si>
-  <si>
-    <t>interpersonal abuse</t>
-  </si>
-  <si>
-    <t>Abuse, usually repeated / chronic / ongoing, that occurs in familial / household / caretaking / trusting relationships, and that may include physical violence</t>
-  </si>
-  <si>
-    <t>(includes: child physical abuse, child sexual abuse, partner abuse, elder abuse)</t>
-  </si>
-  <si>
-    <t>violent environment (outside the family / household)</t>
-  </si>
-  <si>
-    <t>Ongoing indirect exposure to violence / threatened violence in the social and physical environment</t>
-  </si>
-  <si>
-    <t>(includes: community violence environment, school violence environment, workplace violence environment, violent environment related to marginalized group / identity)</t>
-  </si>
-  <si>
-    <t>interpersonal violence outside the family / household</t>
-  </si>
-  <si>
-    <t>Single or repeated instances of violence directed at an individual</t>
-  </si>
-  <si>
-    <t>(includes: physical assault, sexual assault, homicide, abduction / kidnapping, hostage taking, torture)</t>
-  </si>
-  <si>
-    <t>mass violence</t>
-  </si>
-  <si>
-    <t>Single or repeated instances of violence directed at a group of people</t>
-  </si>
-  <si>
-    <t>(includes mass injury/homicide, terrorism, genocide)</t>
-  </si>
-  <si>
-    <t>war / armed conflict</t>
-  </si>
-  <si>
-    <t>(includes: civilian exposure to warfare or armed conflict, combat exposure as member of armed forces, deployment as member of armed forces)</t>
-  </si>
-  <si>
-    <t>migration / displacement</t>
-  </si>
-  <si>
-    <t>(includes: refugee experiences, forced migration, prolonged displacement, WHAT ABOUT CLIMATE-RELATED DISPLACEMENT?)</t>
-  </si>
-  <si>
-    <t>forced labor</t>
-  </si>
-  <si>
-    <t>(includes: slavery, human trafficking?)</t>
-  </si>
-  <si>
-    <t>incarceration</t>
-  </si>
-  <si>
-    <t>(includes: imprisonment after conviction of a crime, concentration camp imprisonment, political imprisonment, war imprisonment)</t>
-  </si>
-  <si>
-    <t>racial trauma</t>
-  </si>
-  <si>
-    <t>(includes: experiences of racism, hate crimes, microagressions)</t>
   </si>
   <si>
     <t>Initials</t>
@@ -1169,12 +365,6 @@
     <t>potentially traumatic experience attribute</t>
   </si>
   <si>
-    <t>a personal history part that is xxxxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an attribute of a potentially traumatic experience that may be related to time (chronicity, duration), causality (human vs not), directness / immediacy of person's exposure </t>
-  </si>
-  <si>
     <t>BCIO:050487</t>
   </si>
   <si>
@@ -1190,47 +380,194 @@
     <t>history</t>
   </si>
   <si>
-    <t>experienced event</t>
-  </si>
-  <si>
-    <t>PTEO: 000001</t>
-  </si>
-  <si>
-    <t>attributes include: chronic / repeated vs single / isolated experience; whether or not causal process involved human agency / intention to harm; direct vs indirect personal experience of an event (e.g. happened to me vs a loved one)</t>
-  </si>
-  <si>
     <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
-  </si>
-  <si>
-    <t>Experience of an occurrence that impacts one or a few people and that involves actual (or potential) injury, without human intention to cause harm.</t>
-  </si>
-  <si>
-    <t>should this be PTE, personal history part, process?</t>
   </si>
   <si>
     <t>health-related experience</t>
   </si>
   <si>
-    <t>natural disaster experience</t>
+    <t>experience of interpersonal abuse</t>
   </si>
   <si>
-    <t>technological disaster experience</t>
+    <t>experience of interpersonal violence outside the household</t>
   </si>
   <si>
-    <t>transportation disaster experience</t>
+    <t>experience of mass violence</t>
   </si>
   <si>
-    <t>residential fire</t>
+    <t>experience of war or armed conflict</t>
   </si>
   <si>
-    <t>wildfire</t>
+    <t>experience of migration or displacement</t>
+  </si>
+  <si>
+    <t>experience of forced labor</t>
+  </si>
+  <si>
+    <t>experience of incarceration</t>
+  </si>
+  <si>
+    <t>experience of racial trauma</t>
+  </si>
+  <si>
+    <t>TSTO:000001</t>
+  </si>
+  <si>
+    <t>potentially traumatic experience type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially traumatic experience </t>
+  </si>
+  <si>
+    <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
+  </si>
+  <si>
+    <t>potentially traumatic experience severity</t>
+  </si>
+  <si>
+    <t>nature of exposure to potentially traumatic experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
+  </si>
+  <si>
+    <t>An attribute of a potentially traumatic experience that is its chronicity</t>
+  </si>
+  <si>
+    <t>event type</t>
+  </si>
+  <si>
+    <t>experienced event; exposure</t>
+  </si>
+  <si>
+    <t>trauma exposure</t>
+  </si>
+  <si>
+    <t>intentionality</t>
+  </si>
+  <si>
+    <t>There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
+  </si>
+  <si>
+    <t>A personal history part that may lead to traumatic stress responses</t>
+  </si>
+  <si>
+    <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of an occurrence that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people </t>
+  </si>
+  <si>
+    <t>Experience of health-related event(s) or treatment</t>
+  </si>
+  <si>
+    <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+  </si>
+  <si>
+    <t>Experience of the death of a loved one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of bereavement </t>
+  </si>
+  <si>
+    <t>Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
+  </si>
+  <si>
+    <t>experience of violent social environment</t>
+  </si>
+  <si>
+    <t>Experience of violence directed at an individual by a person outside their household</t>
+  </si>
+  <si>
+    <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+  </si>
+  <si>
+    <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
+  </si>
+  <si>
+    <t>Experience of violence directed at a group of people</t>
+  </si>
+  <si>
+    <t>Experience of armed conflict between states or other military groups</t>
+  </si>
+  <si>
+    <t>Experience of adverse events related to a person's racial or ethnic identity</t>
+  </si>
+  <si>
+    <t>Experience of being held against one's will by a government or other state actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
+  </si>
+  <si>
+    <t>includes sub-classes for slavery, human trafficking</t>
+  </si>
+  <si>
+    <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+  </si>
+  <si>
+    <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
+  </si>
+  <si>
+    <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+  </si>
+  <si>
+    <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+  </si>
+  <si>
+    <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+  </si>
+  <si>
+    <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+  </si>
+  <si>
+    <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+  </si>
+  <si>
+    <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
+  </si>
+  <si>
+    <t>Experience of being forced to provide labor against one's will</t>
+  </si>
+  <si>
+    <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
+  </si>
+  <si>
+    <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+  </si>
+  <si>
+    <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
+  </si>
+  <si>
+    <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
+  </si>
+  <si>
+    <t>potentially traumatic experience time course</t>
+  </si>
+  <si>
+    <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
+  </si>
+  <si>
+    <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1267,21 +604,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1296,25 +620,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF434343"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1334,25 +639,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1376,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1384,51 +682,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,20 +941,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI1023"/>
+  <dimension ref="A1:AI994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.73046875" customWidth="1"/>
     <col min="2" max="2" width="30.265625" customWidth="1"/>
-    <col min="3" max="3" width="57.59765625" customWidth="1"/>
+    <col min="3" max="3" width="57.59765625" style="7" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" customWidth="1"/>
     <col min="5" max="5" width="43.3984375" customWidth="1"/>
     <col min="6" max="6" width="30.265625" customWidth="1"/>
@@ -1681,7 +974,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="13.15">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1696,13 +989,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1717,7 +1010,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1729,19 +1022,19 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -1765,7 +1058,7 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1778,12 +1071,12 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1809,27 +1102,26 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="14.25">
-      <c r="A3" s="12" t="s">
-        <v>115</v>
+    <row r="3" spans="1:35" ht="25.5">
+      <c r="A3" s="7" t="s">
+        <v>45</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>108</v>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>116</v>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>117</v>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="13" t="s">
-        <v>118</v>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="14" t="s">
+        <v>68</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1857,24 +1149,26 @@
       <c r="AI3" s="2"/>
     </row>
     <row r="4" spans="1:35" ht="12.75">
-      <c r="A4" s="12" t="s">
-        <v>113</v>
+      <c r="A4" s="7" t="s">
+        <v>43</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>109</v>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>114</v>
+      <c r="C4" s="8" t="s">
+        <v>44</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="3"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1901,18 +1195,18 @@
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5">
+    <row r="5" spans="1:35" ht="38.25">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>111</v>
+      <c r="C5" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1922,15 +1216,19 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -1948,16 +1246,20 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" ht="51">
+    <row r="6" spans="1:35" ht="38.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>112</v>
+      <c r="C6" s="13" t="s">
+        <v>62</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1965,17 +1267,17 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -1993,31 +1295,27 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" ht="51">
+    <row r="7" spans="1:35" ht="25.5">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>122</v>
+      <c r="C7" s="13" t="s">
+        <v>61</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>123</v>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2044,27 +1342,29 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" ht="13.15">
+    <row r="8" spans="1:35" ht="25.5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
+      <c r="C8" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>100</v>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>107</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2089,33 +1389,31 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" ht="25.9">
+    <row r="9" spans="1:35" ht="63.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
+      <c r="C9" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>100</v>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>105</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2140,27 +1438,27 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" ht="25.9">
+    <row r="10" spans="1:35" ht="25.5">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
+      <c r="C10" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2187,16 +1485,16 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" ht="25.9">
+    <row r="11" spans="1:35" ht="25.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
+      <c r="C11" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -2205,9 +1503,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2234,29 +1530,35 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" ht="13.15">
+    <row r="12" spans="1:35" ht="51">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
+      <c r="C12" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2281,16 +1583,16 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" ht="13.15">
+    <row r="13" spans="1:35" ht="38.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
+      <c r="C13" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2300,10 +1602,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2328,16 +1632,16 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" ht="13.15">
+    <row r="14" spans="1:35" ht="25.5">
       <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>128</v>
+      <c r="B14" s="11" t="s">
+        <v>49</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2347,10 +1651,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -2375,16 +1681,16 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" ht="13.15">
+    <row r="15" spans="1:35" ht="25.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
+      <c r="B15" s="4" t="s">
+        <v>78</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2394,10 +1700,12 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2422,16 +1730,16 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" ht="13.15">
+    <row r="16" spans="1:35" ht="25.5">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
+      <c r="B16" s="12" t="s">
+        <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
+      <c r="C16" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2441,10 +1749,12 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -2469,16 +1779,16 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" ht="13.15">
+    <row r="17" spans="1:35" ht="38.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>41</v>
+      <c r="B17" s="12" t="s">
+        <v>80</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>42</v>
+      <c r="C17" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2488,10 +1798,12 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -2516,16 +1828,16 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" ht="13.15">
+    <row r="18" spans="1:35" ht="25.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
+      <c r="B18" s="12" t="s">
+        <v>51</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>44</v>
+      <c r="C18" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2535,10 +1847,12 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="N18" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -2563,20 +1877,18 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" ht="38.25">
+    <row r="19" spans="1:35" ht="12.75">
       <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>45</v>
+      <c r="B19" s="12" t="s">
+        <v>52</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
+      <c r="C19" s="17" t="s">
+        <v>85</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>123</v>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2584,10 +1896,12 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -2612,16 +1926,16 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" ht="25.9">
+    <row r="20" spans="1:35" ht="38.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>125</v>
+      <c r="B20" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2631,10 +1945,12 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -2659,16 +1975,16 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" ht="13.15">
+    <row r="21" spans="1:35" ht="25.5">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
+      <c r="B21" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2678,10 +1994,12 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2706,16 +2024,16 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" ht="13.15">
+    <row r="22" spans="1:35" ht="12.75">
       <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>129</v>
+      <c r="B22" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2725,10 +2043,12 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2753,16 +2073,16 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" ht="13.15">
+    <row r="23" spans="1:35" ht="25.5">
       <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>52</v>
+      <c r="B23" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2772,10 +2092,12 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2800,16 +2122,16 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" ht="13.15">
+    <row r="24" spans="1:35" ht="25.5">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
+      <c r="B24" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2819,10 +2141,12 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2847,17 +2171,11 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" ht="13.15">
+    <row r="25" spans="1:35" ht="12.75">
       <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2865,18 +2183,14 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -2894,17 +2208,11 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" ht="13.15">
+    <row r="26" spans="1:35" ht="12.75">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2912,18 +2220,14 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -2941,17 +2245,11 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" ht="13.15">
+    <row r="27" spans="1:35" ht="12.75">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -2959,18 +2257,14 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -2988,17 +2282,11 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" ht="13.15">
+    <row r="28" spans="1:35" ht="12.75">
       <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>125</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3006,18 +2294,14 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
@@ -3037,13 +2321,9 @@
     </row>
     <row r="29" spans="1:35" ht="12.75">
       <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3051,18 +2331,14 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -3082,13 +2358,9 @@
     </row>
     <row r="30" spans="1:35" ht="12.75">
       <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -3096,18 +2368,14 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
@@ -3125,15 +2393,11 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" ht="38.25">
+    <row r="31" spans="1:35" ht="12.75">
       <c r="A31" s="2"/>
-      <c r="B31" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3141,18 +2405,14 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -3170,15 +2430,11 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" ht="25.5">
+    <row r="32" spans="1:35" ht="12.75">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3186,18 +2442,14 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -3215,15 +2467,11 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" ht="25.5">
+    <row r="33" spans="1:35" ht="12.75">
       <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3231,18 +2479,14 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
@@ -3260,15 +2504,11 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" ht="25.5">
+    <row r="34" spans="1:35" ht="12.75">
       <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3276,18 +2516,14 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
@@ -3305,15 +2541,11 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" ht="38.25">
+    <row r="35" spans="1:35" ht="12.75">
       <c r="A35" s="2"/>
-      <c r="B35" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3321,18 +2553,14 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
@@ -3350,17 +2578,11 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" ht="15.75" customHeight="1">
+    <row r="36" spans="1:35" ht="12.75">
       <c r="A36" s="2"/>
-      <c r="B36" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3368,9 +2590,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -3395,12 +2615,10 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" ht="38.25">
+    <row r="37" spans="1:35" ht="12.75">
       <c r="A37" s="2"/>
-      <c r="B37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="6"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3409,9 +2627,7 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -3436,17 +2652,11 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" ht="38.25">
+    <row r="38" spans="1:35" ht="12.75">
       <c r="A38" s="2"/>
-      <c r="B38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3454,9 +2664,7 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -3481,12 +2689,10 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" ht="15.75" customHeight="1">
+    <row r="39" spans="1:35" ht="12.75">
       <c r="A39" s="2"/>
-      <c r="B39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="9"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3495,9 +2701,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -3522,17 +2726,11 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" ht="38.25">
+    <row r="40" spans="1:35" ht="12.75">
       <c r="A40" s="2"/>
-      <c r="B40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3540,9 +2738,7 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -3567,12 +2763,10 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" ht="38.25">
+    <row r="41" spans="1:35" ht="12.75">
       <c r="A41" s="2"/>
-      <c r="B41" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="9"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -3581,9 +2775,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -3608,17 +2800,11 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" ht="38.25">
+    <row r="42" spans="1:35" ht="12.75">
       <c r="A42" s="2"/>
-      <c r="B42" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3626,9 +2812,7 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -3653,11 +2837,9 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" ht="25.5">
+    <row r="43" spans="1:35" ht="12.75">
       <c r="A43" s="2"/>
-      <c r="B43" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -3667,9 +2849,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3694,15 +2874,11 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" ht="38.25">
+    <row r="44" spans="1:35" ht="12.75">
       <c r="A44" s="2"/>
-      <c r="B44" s="7" t="s">
-        <v>80</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3710,9 +2886,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3737,11 +2911,9 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" ht="63.75">
+    <row r="45" spans="1:35" ht="12.75">
       <c r="A45" s="2"/>
-      <c r="B45" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -3751,9 +2923,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3778,15 +2948,11 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" ht="38.25">
+    <row r="46" spans="1:35" ht="12.75">
       <c r="A46" s="2"/>
-      <c r="B46" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3794,9 +2960,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -3821,11 +2985,9 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" ht="63.75">
+    <row r="47" spans="1:35" ht="12.75">
       <c r="A47" s="2"/>
-      <c r="B47" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -3835,9 +2997,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -3862,15 +3022,11 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" ht="38.25">
+    <row r="48" spans="1:35" ht="12.75">
       <c r="A48" s="2"/>
-      <c r="B48" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3878,9 +3034,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -3905,11 +3059,9 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" ht="25.5">
+    <row r="49" spans="1:35" ht="12.75">
       <c r="A49" s="2"/>
-      <c r="B49" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -3919,9 +3071,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3946,15 +3096,11 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" ht="38.25">
+    <row r="50" spans="1:35" ht="12.75">
       <c r="A50" s="2"/>
-      <c r="B50" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3962,9 +3108,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -3989,11 +3133,9 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" ht="51">
+    <row r="51" spans="1:35" ht="12.75">
       <c r="A51" s="2"/>
-      <c r="B51" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4003,9 +3145,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -4030,15 +3170,11 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" ht="38.25">
+    <row r="52" spans="1:35" ht="12.75">
       <c r="A52" s="2"/>
-      <c r="B52" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="18" t="s">
-        <v>123</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -4046,9 +3182,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -4073,11 +3207,9 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" ht="25.5">
+    <row r="53" spans="1:35" ht="12.75">
       <c r="A53" s="2"/>
-      <c r="B53" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4087,9 +3219,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -38931,1079 +38061,6 @@
       <c r="AH994" s="2"/>
       <c r="AI994" s="2"/>
     </row>
-    <row r="995" spans="1:35" ht="12.75">
-      <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
-      <c r="C995" s="2"/>
-      <c r="D995" s="2"/>
-      <c r="E995" s="2"/>
-      <c r="F995" s="2"/>
-      <c r="G995" s="2"/>
-      <c r="H995" s="2"/>
-      <c r="I995" s="2"/>
-      <c r="J995" s="2"/>
-      <c r="K995" s="2"/>
-      <c r="L995" s="2"/>
-      <c r="M995" s="2"/>
-      <c r="N995" s="2"/>
-      <c r="O995" s="2"/>
-      <c r="P995" s="2"/>
-      <c r="Q995" s="2"/>
-      <c r="R995" s="2"/>
-      <c r="S995" s="2"/>
-      <c r="T995" s="2"/>
-      <c r="U995" s="2"/>
-      <c r="V995" s="2"/>
-      <c r="W995" s="2"/>
-      <c r="X995" s="2"/>
-      <c r="Y995" s="2"/>
-      <c r="Z995" s="2"/>
-      <c r="AA995" s="2"/>
-      <c r="AB995" s="2"/>
-      <c r="AC995" s="2"/>
-      <c r="AD995" s="2"/>
-      <c r="AE995" s="2"/>
-      <c r="AF995" s="2"/>
-      <c r="AG995" s="2"/>
-      <c r="AH995" s="2"/>
-      <c r="AI995" s="2"/>
-    </row>
-    <row r="996" spans="1:35" ht="12.75">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
-      <c r="G996" s="2"/>
-      <c r="H996" s="2"/>
-      <c r="I996" s="2"/>
-      <c r="J996" s="2"/>
-      <c r="K996" s="2"/>
-      <c r="L996" s="2"/>
-      <c r="M996" s="2"/>
-      <c r="N996" s="2"/>
-      <c r="O996" s="2"/>
-      <c r="P996" s="2"/>
-      <c r="Q996" s="2"/>
-      <c r="R996" s="2"/>
-      <c r="S996" s="2"/>
-      <c r="T996" s="2"/>
-      <c r="U996" s="2"/>
-      <c r="V996" s="2"/>
-      <c r="W996" s="2"/>
-      <c r="X996" s="2"/>
-      <c r="Y996" s="2"/>
-      <c r="Z996" s="2"/>
-      <c r="AA996" s="2"/>
-      <c r="AB996" s="2"/>
-      <c r="AC996" s="2"/>
-      <c r="AD996" s="2"/>
-      <c r="AE996" s="2"/>
-      <c r="AF996" s="2"/>
-      <c r="AG996" s="2"/>
-      <c r="AH996" s="2"/>
-      <c r="AI996" s="2"/>
-    </row>
-    <row r="997" spans="1:35" ht="12.75">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="G997" s="2"/>
-      <c r="H997" s="2"/>
-      <c r="I997" s="2"/>
-      <c r="J997" s="2"/>
-      <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
-      <c r="N997" s="2"/>
-      <c r="O997" s="2"/>
-      <c r="P997" s="2"/>
-      <c r="Q997" s="2"/>
-      <c r="R997" s="2"/>
-      <c r="S997" s="2"/>
-      <c r="T997" s="2"/>
-      <c r="U997" s="2"/>
-      <c r="V997" s="2"/>
-      <c r="W997" s="2"/>
-      <c r="X997" s="2"/>
-      <c r="Y997" s="2"/>
-      <c r="Z997" s="2"/>
-      <c r="AA997" s="2"/>
-      <c r="AB997" s="2"/>
-      <c r="AC997" s="2"/>
-      <c r="AD997" s="2"/>
-      <c r="AE997" s="2"/>
-      <c r="AF997" s="2"/>
-      <c r="AG997" s="2"/>
-      <c r="AH997" s="2"/>
-      <c r="AI997" s="2"/>
-    </row>
-    <row r="998" spans="1:35" ht="12.75">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-      <c r="Y998" s="2"/>
-      <c r="Z998" s="2"/>
-      <c r="AA998" s="2"/>
-      <c r="AB998" s="2"/>
-      <c r="AC998" s="2"/>
-      <c r="AD998" s="2"/>
-      <c r="AE998" s="2"/>
-      <c r="AF998" s="2"/>
-      <c r="AG998" s="2"/>
-      <c r="AH998" s="2"/>
-      <c r="AI998" s="2"/>
-    </row>
-    <row r="999" spans="1:35" ht="12.75">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-      <c r="AA999" s="2"/>
-      <c r="AB999" s="2"/>
-      <c r="AC999" s="2"/>
-      <c r="AD999" s="2"/>
-      <c r="AE999" s="2"/>
-      <c r="AF999" s="2"/>
-      <c r="AG999" s="2"/>
-      <c r="AH999" s="2"/>
-      <c r="AI999" s="2"/>
-    </row>
-    <row r="1000" spans="1:35" ht="12.75">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-      <c r="AA1000" s="2"/>
-      <c r="AB1000" s="2"/>
-      <c r="AC1000" s="2"/>
-      <c r="AD1000" s="2"/>
-      <c r="AE1000" s="2"/>
-      <c r="AF1000" s="2"/>
-      <c r="AG1000" s="2"/>
-      <c r="AH1000" s="2"/>
-      <c r="AI1000" s="2"/>
-    </row>
-    <row r="1001" spans="1:35" ht="12.75">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-      <c r="Y1001" s="2"/>
-      <c r="Z1001" s="2"/>
-      <c r="AA1001" s="2"/>
-      <c r="AB1001" s="2"/>
-      <c r="AC1001" s="2"/>
-      <c r="AD1001" s="2"/>
-      <c r="AE1001" s="2"/>
-      <c r="AF1001" s="2"/>
-      <c r="AG1001" s="2"/>
-      <c r="AH1001" s="2"/>
-      <c r="AI1001" s="2"/>
-    </row>
-    <row r="1002" spans="1:35" ht="12.75">
-      <c r="A1002" s="2"/>
-      <c r="B1002" s="2"/>
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="2"/>
-      <c r="F1002" s="2"/>
-      <c r="G1002" s="2"/>
-      <c r="H1002" s="2"/>
-      <c r="I1002" s="2"/>
-      <c r="J1002" s="2"/>
-      <c r="K1002" s="2"/>
-      <c r="L1002" s="2"/>
-      <c r="M1002" s="2"/>
-      <c r="N1002" s="2"/>
-      <c r="O1002" s="2"/>
-      <c r="P1002" s="2"/>
-      <c r="Q1002" s="2"/>
-      <c r="R1002" s="2"/>
-      <c r="S1002" s="2"/>
-      <c r="T1002" s="2"/>
-      <c r="U1002" s="2"/>
-      <c r="V1002" s="2"/>
-      <c r="W1002" s="2"/>
-      <c r="X1002" s="2"/>
-      <c r="Y1002" s="2"/>
-      <c r="Z1002" s="2"/>
-      <c r="AA1002" s="2"/>
-      <c r="AB1002" s="2"/>
-      <c r="AC1002" s="2"/>
-      <c r="AD1002" s="2"/>
-      <c r="AE1002" s="2"/>
-      <c r="AF1002" s="2"/>
-      <c r="AG1002" s="2"/>
-      <c r="AH1002" s="2"/>
-      <c r="AI1002" s="2"/>
-    </row>
-    <row r="1003" spans="1:35" ht="12.75">
-      <c r="A1003" s="2"/>
-      <c r="B1003" s="2"/>
-      <c r="C1003" s="2"/>
-      <c r="D1003" s="2"/>
-      <c r="E1003" s="2"/>
-      <c r="F1003" s="2"/>
-      <c r="G1003" s="2"/>
-      <c r="H1003" s="2"/>
-      <c r="I1003" s="2"/>
-      <c r="J1003" s="2"/>
-      <c r="K1003" s="2"/>
-      <c r="L1003" s="2"/>
-      <c r="M1003" s="2"/>
-      <c r="N1003" s="2"/>
-      <c r="O1003" s="2"/>
-      <c r="P1003" s="2"/>
-      <c r="Q1003" s="2"/>
-      <c r="R1003" s="2"/>
-      <c r="S1003" s="2"/>
-      <c r="T1003" s="2"/>
-      <c r="U1003" s="2"/>
-      <c r="V1003" s="2"/>
-      <c r="W1003" s="2"/>
-      <c r="X1003" s="2"/>
-      <c r="Y1003" s="2"/>
-      <c r="Z1003" s="2"/>
-      <c r="AA1003" s="2"/>
-      <c r="AB1003" s="2"/>
-      <c r="AC1003" s="2"/>
-      <c r="AD1003" s="2"/>
-      <c r="AE1003" s="2"/>
-      <c r="AF1003" s="2"/>
-      <c r="AG1003" s="2"/>
-      <c r="AH1003" s="2"/>
-      <c r="AI1003" s="2"/>
-    </row>
-    <row r="1004" spans="1:35" ht="12.75">
-      <c r="A1004" s="2"/>
-      <c r="B1004" s="2"/>
-      <c r="C1004" s="2"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="2"/>
-      <c r="F1004" s="2"/>
-      <c r="G1004" s="2"/>
-      <c r="H1004" s="2"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="2"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="2"/>
-      <c r="M1004" s="2"/>
-      <c r="N1004" s="2"/>
-      <c r="O1004" s="2"/>
-      <c r="P1004" s="2"/>
-      <c r="Q1004" s="2"/>
-      <c r="R1004" s="2"/>
-      <c r="S1004" s="2"/>
-      <c r="T1004" s="2"/>
-      <c r="U1004" s="2"/>
-      <c r="V1004" s="2"/>
-      <c r="W1004" s="2"/>
-      <c r="X1004" s="2"/>
-      <c r="Y1004" s="2"/>
-      <c r="Z1004" s="2"/>
-      <c r="AA1004" s="2"/>
-      <c r="AB1004" s="2"/>
-      <c r="AC1004" s="2"/>
-      <c r="AD1004" s="2"/>
-      <c r="AE1004" s="2"/>
-      <c r="AF1004" s="2"/>
-      <c r="AG1004" s="2"/>
-      <c r="AH1004" s="2"/>
-      <c r="AI1004" s="2"/>
-    </row>
-    <row r="1005" spans="1:35" ht="12.75">
-      <c r="A1005" s="2"/>
-      <c r="B1005" s="2"/>
-      <c r="C1005" s="2"/>
-      <c r="D1005" s="2"/>
-      <c r="E1005" s="2"/>
-      <c r="F1005" s="2"/>
-      <c r="G1005" s="2"/>
-      <c r="H1005" s="2"/>
-      <c r="I1005" s="2"/>
-      <c r="J1005" s="2"/>
-      <c r="K1005" s="2"/>
-      <c r="L1005" s="2"/>
-      <c r="M1005" s="2"/>
-      <c r="N1005" s="2"/>
-      <c r="O1005" s="2"/>
-      <c r="P1005" s="2"/>
-      <c r="Q1005" s="2"/>
-      <c r="R1005" s="2"/>
-      <c r="S1005" s="2"/>
-      <c r="T1005" s="2"/>
-      <c r="U1005" s="2"/>
-      <c r="V1005" s="2"/>
-      <c r="W1005" s="2"/>
-      <c r="X1005" s="2"/>
-      <c r="Y1005" s="2"/>
-      <c r="Z1005" s="2"/>
-      <c r="AA1005" s="2"/>
-      <c r="AB1005" s="2"/>
-      <c r="AC1005" s="2"/>
-      <c r="AD1005" s="2"/>
-      <c r="AE1005" s="2"/>
-      <c r="AF1005" s="2"/>
-      <c r="AG1005" s="2"/>
-      <c r="AH1005" s="2"/>
-      <c r="AI1005" s="2"/>
-    </row>
-    <row r="1006" spans="1:35" ht="12.75">
-      <c r="A1006" s="2"/>
-      <c r="B1006" s="2"/>
-      <c r="C1006" s="2"/>
-      <c r="D1006" s="2"/>
-      <c r="E1006" s="2"/>
-      <c r="F1006" s="2"/>
-      <c r="G1006" s="2"/>
-      <c r="H1006" s="2"/>
-      <c r="I1006" s="2"/>
-      <c r="J1006" s="2"/>
-      <c r="K1006" s="2"/>
-      <c r="L1006" s="2"/>
-      <c r="M1006" s="2"/>
-      <c r="N1006" s="2"/>
-      <c r="O1006" s="2"/>
-      <c r="P1006" s="2"/>
-      <c r="Q1006" s="2"/>
-      <c r="R1006" s="2"/>
-      <c r="S1006" s="2"/>
-      <c r="T1006" s="2"/>
-      <c r="U1006" s="2"/>
-      <c r="V1006" s="2"/>
-      <c r="W1006" s="2"/>
-      <c r="X1006" s="2"/>
-      <c r="Y1006" s="2"/>
-      <c r="Z1006" s="2"/>
-      <c r="AA1006" s="2"/>
-      <c r="AB1006" s="2"/>
-      <c r="AC1006" s="2"/>
-      <c r="AD1006" s="2"/>
-      <c r="AE1006" s="2"/>
-      <c r="AF1006" s="2"/>
-      <c r="AG1006" s="2"/>
-      <c r="AH1006" s="2"/>
-      <c r="AI1006" s="2"/>
-    </row>
-    <row r="1007" spans="1:35" ht="12.75">
-      <c r="A1007" s="2"/>
-      <c r="B1007" s="2"/>
-      <c r="C1007" s="2"/>
-      <c r="D1007" s="2"/>
-      <c r="E1007" s="2"/>
-      <c r="F1007" s="2"/>
-      <c r="G1007" s="2"/>
-      <c r="H1007" s="2"/>
-      <c r="I1007" s="2"/>
-      <c r="J1007" s="2"/>
-      <c r="K1007" s="2"/>
-      <c r="L1007" s="2"/>
-      <c r="M1007" s="2"/>
-      <c r="N1007" s="2"/>
-      <c r="O1007" s="2"/>
-      <c r="P1007" s="2"/>
-      <c r="Q1007" s="2"/>
-      <c r="R1007" s="2"/>
-      <c r="S1007" s="2"/>
-      <c r="T1007" s="2"/>
-      <c r="U1007" s="2"/>
-      <c r="V1007" s="2"/>
-      <c r="W1007" s="2"/>
-      <c r="X1007" s="2"/>
-      <c r="Y1007" s="2"/>
-      <c r="Z1007" s="2"/>
-      <c r="AA1007" s="2"/>
-      <c r="AB1007" s="2"/>
-      <c r="AC1007" s="2"/>
-      <c r="AD1007" s="2"/>
-      <c r="AE1007" s="2"/>
-      <c r="AF1007" s="2"/>
-      <c r="AG1007" s="2"/>
-      <c r="AH1007" s="2"/>
-      <c r="AI1007" s="2"/>
-    </row>
-    <row r="1008" spans="1:35" ht="12.75">
-      <c r="A1008" s="2"/>
-      <c r="B1008" s="2"/>
-      <c r="C1008" s="2"/>
-      <c r="D1008" s="2"/>
-      <c r="E1008" s="2"/>
-      <c r="F1008" s="2"/>
-      <c r="G1008" s="2"/>
-      <c r="H1008" s="2"/>
-      <c r="I1008" s="2"/>
-      <c r="J1008" s="2"/>
-      <c r="K1008" s="2"/>
-      <c r="L1008" s="2"/>
-      <c r="M1008" s="2"/>
-      <c r="N1008" s="2"/>
-      <c r="O1008" s="2"/>
-      <c r="P1008" s="2"/>
-      <c r="Q1008" s="2"/>
-      <c r="R1008" s="2"/>
-      <c r="S1008" s="2"/>
-      <c r="T1008" s="2"/>
-      <c r="U1008" s="2"/>
-      <c r="V1008" s="2"/>
-      <c r="W1008" s="2"/>
-      <c r="X1008" s="2"/>
-      <c r="Y1008" s="2"/>
-      <c r="Z1008" s="2"/>
-      <c r="AA1008" s="2"/>
-      <c r="AB1008" s="2"/>
-      <c r="AC1008" s="2"/>
-      <c r="AD1008" s="2"/>
-      <c r="AE1008" s="2"/>
-      <c r="AF1008" s="2"/>
-      <c r="AG1008" s="2"/>
-      <c r="AH1008" s="2"/>
-      <c r="AI1008" s="2"/>
-    </row>
-    <row r="1009" spans="1:35" ht="12.75">
-      <c r="A1009" s="2"/>
-      <c r="B1009" s="2"/>
-      <c r="C1009" s="2"/>
-      <c r="D1009" s="2"/>
-      <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
-      <c r="G1009" s="2"/>
-      <c r="H1009" s="2"/>
-      <c r="I1009" s="2"/>
-      <c r="J1009" s="2"/>
-      <c r="K1009" s="2"/>
-      <c r="L1009" s="2"/>
-      <c r="M1009" s="2"/>
-      <c r="N1009" s="2"/>
-      <c r="O1009" s="2"/>
-      <c r="P1009" s="2"/>
-      <c r="Q1009" s="2"/>
-      <c r="R1009" s="2"/>
-      <c r="S1009" s="2"/>
-      <c r="T1009" s="2"/>
-      <c r="U1009" s="2"/>
-      <c r="V1009" s="2"/>
-      <c r="W1009" s="2"/>
-      <c r="X1009" s="2"/>
-      <c r="Y1009" s="2"/>
-      <c r="Z1009" s="2"/>
-      <c r="AA1009" s="2"/>
-      <c r="AB1009" s="2"/>
-      <c r="AC1009" s="2"/>
-      <c r="AD1009" s="2"/>
-      <c r="AE1009" s="2"/>
-      <c r="AF1009" s="2"/>
-      <c r="AG1009" s="2"/>
-      <c r="AH1009" s="2"/>
-      <c r="AI1009" s="2"/>
-    </row>
-    <row r="1010" spans="1:35" ht="12.75">
-      <c r="A1010" s="2"/>
-      <c r="B1010" s="2"/>
-      <c r="C1010" s="2"/>
-      <c r="D1010" s="2"/>
-      <c r="E1010" s="2"/>
-      <c r="F1010" s="2"/>
-      <c r="G1010" s="2"/>
-      <c r="H1010" s="2"/>
-      <c r="I1010" s="2"/>
-      <c r="J1010" s="2"/>
-      <c r="K1010" s="2"/>
-      <c r="L1010" s="2"/>
-      <c r="M1010" s="2"/>
-      <c r="N1010" s="2"/>
-      <c r="O1010" s="2"/>
-      <c r="P1010" s="2"/>
-      <c r="Q1010" s="2"/>
-      <c r="R1010" s="2"/>
-      <c r="S1010" s="2"/>
-      <c r="T1010" s="2"/>
-      <c r="U1010" s="2"/>
-      <c r="V1010" s="2"/>
-      <c r="W1010" s="2"/>
-      <c r="X1010" s="2"/>
-      <c r="Y1010" s="2"/>
-      <c r="Z1010" s="2"/>
-      <c r="AA1010" s="2"/>
-      <c r="AB1010" s="2"/>
-      <c r="AC1010" s="2"/>
-      <c r="AD1010" s="2"/>
-      <c r="AE1010" s="2"/>
-      <c r="AF1010" s="2"/>
-      <c r="AG1010" s="2"/>
-      <c r="AH1010" s="2"/>
-      <c r="AI1010" s="2"/>
-    </row>
-    <row r="1011" spans="1:35" ht="12.75">
-      <c r="A1011" s="2"/>
-      <c r="B1011" s="2"/>
-      <c r="C1011" s="2"/>
-      <c r="D1011" s="2"/>
-      <c r="E1011" s="2"/>
-      <c r="F1011" s="2"/>
-      <c r="G1011" s="2"/>
-      <c r="H1011" s="2"/>
-      <c r="I1011" s="2"/>
-      <c r="J1011" s="2"/>
-      <c r="K1011" s="2"/>
-      <c r="L1011" s="2"/>
-      <c r="M1011" s="2"/>
-      <c r="N1011" s="2"/>
-      <c r="O1011" s="2"/>
-      <c r="P1011" s="2"/>
-      <c r="Q1011" s="2"/>
-      <c r="R1011" s="2"/>
-      <c r="S1011" s="2"/>
-      <c r="T1011" s="2"/>
-      <c r="U1011" s="2"/>
-      <c r="V1011" s="2"/>
-      <c r="W1011" s="2"/>
-      <c r="X1011" s="2"/>
-      <c r="Y1011" s="2"/>
-      <c r="Z1011" s="2"/>
-      <c r="AA1011" s="2"/>
-      <c r="AB1011" s="2"/>
-      <c r="AC1011" s="2"/>
-      <c r="AD1011" s="2"/>
-      <c r="AE1011" s="2"/>
-      <c r="AF1011" s="2"/>
-      <c r="AG1011" s="2"/>
-      <c r="AH1011" s="2"/>
-      <c r="AI1011" s="2"/>
-    </row>
-    <row r="1012" spans="1:35" ht="12.75">
-      <c r="A1012" s="2"/>
-      <c r="B1012" s="2"/>
-      <c r="C1012" s="2"/>
-      <c r="D1012" s="2"/>
-      <c r="E1012" s="2"/>
-      <c r="F1012" s="2"/>
-      <c r="G1012" s="2"/>
-      <c r="H1012" s="2"/>
-      <c r="I1012" s="2"/>
-      <c r="J1012" s="2"/>
-      <c r="K1012" s="2"/>
-      <c r="L1012" s="2"/>
-      <c r="M1012" s="2"/>
-      <c r="N1012" s="2"/>
-      <c r="O1012" s="2"/>
-      <c r="P1012" s="2"/>
-      <c r="Q1012" s="2"/>
-      <c r="R1012" s="2"/>
-      <c r="S1012" s="2"/>
-      <c r="T1012" s="2"/>
-      <c r="U1012" s="2"/>
-      <c r="V1012" s="2"/>
-      <c r="W1012" s="2"/>
-      <c r="X1012" s="2"/>
-      <c r="Y1012" s="2"/>
-      <c r="Z1012" s="2"/>
-      <c r="AA1012" s="2"/>
-      <c r="AB1012" s="2"/>
-      <c r="AC1012" s="2"/>
-      <c r="AD1012" s="2"/>
-      <c r="AE1012" s="2"/>
-      <c r="AF1012" s="2"/>
-      <c r="AG1012" s="2"/>
-      <c r="AH1012" s="2"/>
-      <c r="AI1012" s="2"/>
-    </row>
-    <row r="1013" spans="1:35" ht="12.75">
-      <c r="A1013" s="2"/>
-      <c r="B1013" s="2"/>
-      <c r="C1013" s="2"/>
-      <c r="D1013" s="2"/>
-      <c r="E1013" s="2"/>
-      <c r="F1013" s="2"/>
-      <c r="G1013" s="2"/>
-      <c r="H1013" s="2"/>
-      <c r="I1013" s="2"/>
-      <c r="J1013" s="2"/>
-      <c r="K1013" s="2"/>
-      <c r="L1013" s="2"/>
-      <c r="M1013" s="2"/>
-      <c r="N1013" s="2"/>
-      <c r="O1013" s="2"/>
-      <c r="P1013" s="2"/>
-      <c r="Q1013" s="2"/>
-      <c r="R1013" s="2"/>
-      <c r="S1013" s="2"/>
-      <c r="T1013" s="2"/>
-      <c r="U1013" s="2"/>
-      <c r="V1013" s="2"/>
-      <c r="W1013" s="2"/>
-      <c r="X1013" s="2"/>
-      <c r="Y1013" s="2"/>
-      <c r="Z1013" s="2"/>
-      <c r="AA1013" s="2"/>
-      <c r="AB1013" s="2"/>
-      <c r="AC1013" s="2"/>
-      <c r="AD1013" s="2"/>
-      <c r="AE1013" s="2"/>
-      <c r="AF1013" s="2"/>
-      <c r="AG1013" s="2"/>
-      <c r="AH1013" s="2"/>
-      <c r="AI1013" s="2"/>
-    </row>
-    <row r="1014" spans="1:35" ht="12.75">
-      <c r="A1014" s="2"/>
-      <c r="B1014" s="2"/>
-      <c r="C1014" s="2"/>
-      <c r="D1014" s="2"/>
-      <c r="E1014" s="2"/>
-      <c r="F1014" s="2"/>
-      <c r="G1014" s="2"/>
-      <c r="H1014" s="2"/>
-      <c r="I1014" s="2"/>
-      <c r="J1014" s="2"/>
-      <c r="K1014" s="2"/>
-      <c r="L1014" s="2"/>
-      <c r="M1014" s="2"/>
-      <c r="N1014" s="2"/>
-      <c r="O1014" s="2"/>
-      <c r="P1014" s="2"/>
-      <c r="Q1014" s="2"/>
-      <c r="R1014" s="2"/>
-      <c r="S1014" s="2"/>
-      <c r="T1014" s="2"/>
-      <c r="U1014" s="2"/>
-      <c r="V1014" s="2"/>
-      <c r="W1014" s="2"/>
-      <c r="X1014" s="2"/>
-      <c r="Y1014" s="2"/>
-      <c r="Z1014" s="2"/>
-      <c r="AA1014" s="2"/>
-      <c r="AB1014" s="2"/>
-      <c r="AC1014" s="2"/>
-      <c r="AD1014" s="2"/>
-      <c r="AE1014" s="2"/>
-      <c r="AF1014" s="2"/>
-      <c r="AG1014" s="2"/>
-      <c r="AH1014" s="2"/>
-      <c r="AI1014" s="2"/>
-    </row>
-    <row r="1015" spans="1:35" ht="12.75">
-      <c r="A1015" s="2"/>
-      <c r="B1015" s="2"/>
-      <c r="C1015" s="2"/>
-      <c r="D1015" s="2"/>
-      <c r="E1015" s="2"/>
-      <c r="F1015" s="2"/>
-      <c r="G1015" s="2"/>
-      <c r="H1015" s="2"/>
-      <c r="I1015" s="2"/>
-      <c r="J1015" s="2"/>
-      <c r="K1015" s="2"/>
-      <c r="L1015" s="2"/>
-      <c r="M1015" s="2"/>
-      <c r="N1015" s="2"/>
-      <c r="O1015" s="2"/>
-      <c r="P1015" s="2"/>
-      <c r="Q1015" s="2"/>
-      <c r="R1015" s="2"/>
-      <c r="S1015" s="2"/>
-      <c r="T1015" s="2"/>
-      <c r="U1015" s="2"/>
-      <c r="V1015" s="2"/>
-      <c r="W1015" s="2"/>
-      <c r="X1015" s="2"/>
-      <c r="Y1015" s="2"/>
-      <c r="Z1015" s="2"/>
-      <c r="AA1015" s="2"/>
-      <c r="AB1015" s="2"/>
-      <c r="AC1015" s="2"/>
-      <c r="AD1015" s="2"/>
-      <c r="AE1015" s="2"/>
-      <c r="AF1015" s="2"/>
-      <c r="AG1015" s="2"/>
-      <c r="AH1015" s="2"/>
-      <c r="AI1015" s="2"/>
-    </row>
-    <row r="1016" spans="1:35" ht="12.75">
-      <c r="A1016" s="2"/>
-      <c r="B1016" s="2"/>
-      <c r="C1016" s="2"/>
-      <c r="D1016" s="2"/>
-      <c r="E1016" s="2"/>
-      <c r="F1016" s="2"/>
-      <c r="G1016" s="2"/>
-      <c r="H1016" s="2"/>
-      <c r="I1016" s="2"/>
-      <c r="J1016" s="2"/>
-      <c r="K1016" s="2"/>
-      <c r="L1016" s="2"/>
-      <c r="M1016" s="2"/>
-      <c r="N1016" s="2"/>
-      <c r="O1016" s="2"/>
-      <c r="P1016" s="2"/>
-      <c r="Q1016" s="2"/>
-      <c r="R1016" s="2"/>
-      <c r="S1016" s="2"/>
-      <c r="T1016" s="2"/>
-      <c r="U1016" s="2"/>
-      <c r="V1016" s="2"/>
-      <c r="W1016" s="2"/>
-      <c r="X1016" s="2"/>
-      <c r="Y1016" s="2"/>
-      <c r="Z1016" s="2"/>
-      <c r="AA1016" s="2"/>
-      <c r="AB1016" s="2"/>
-      <c r="AC1016" s="2"/>
-      <c r="AD1016" s="2"/>
-      <c r="AE1016" s="2"/>
-      <c r="AF1016" s="2"/>
-      <c r="AG1016" s="2"/>
-      <c r="AH1016" s="2"/>
-      <c r="AI1016" s="2"/>
-    </row>
-    <row r="1017" spans="1:35" ht="12.75">
-      <c r="A1017" s="2"/>
-      <c r="B1017" s="2"/>
-      <c r="C1017" s="2"/>
-      <c r="D1017" s="2"/>
-      <c r="E1017" s="2"/>
-      <c r="F1017" s="2"/>
-      <c r="G1017" s="2"/>
-      <c r="H1017" s="2"/>
-      <c r="I1017" s="2"/>
-      <c r="J1017" s="2"/>
-      <c r="K1017" s="2"/>
-      <c r="L1017" s="2"/>
-      <c r="M1017" s="2"/>
-      <c r="N1017" s="2"/>
-      <c r="O1017" s="2"/>
-      <c r="P1017" s="2"/>
-      <c r="Q1017" s="2"/>
-      <c r="R1017" s="2"/>
-      <c r="S1017" s="2"/>
-      <c r="T1017" s="2"/>
-      <c r="U1017" s="2"/>
-      <c r="V1017" s="2"/>
-      <c r="W1017" s="2"/>
-      <c r="X1017" s="2"/>
-      <c r="Y1017" s="2"/>
-      <c r="Z1017" s="2"/>
-      <c r="AA1017" s="2"/>
-      <c r="AB1017" s="2"/>
-      <c r="AC1017" s="2"/>
-      <c r="AD1017" s="2"/>
-      <c r="AE1017" s="2"/>
-      <c r="AF1017" s="2"/>
-      <c r="AG1017" s="2"/>
-      <c r="AH1017" s="2"/>
-      <c r="AI1017" s="2"/>
-    </row>
-    <row r="1018" spans="1:35" ht="12.75">
-      <c r="A1018" s="2"/>
-      <c r="B1018" s="2"/>
-      <c r="C1018" s="2"/>
-      <c r="D1018" s="2"/>
-      <c r="E1018" s="2"/>
-      <c r="F1018" s="2"/>
-      <c r="G1018" s="2"/>
-      <c r="H1018" s="2"/>
-      <c r="I1018" s="2"/>
-      <c r="J1018" s="2"/>
-      <c r="K1018" s="2"/>
-      <c r="L1018" s="2"/>
-      <c r="M1018" s="2"/>
-      <c r="N1018" s="2"/>
-      <c r="O1018" s="2"/>
-      <c r="P1018" s="2"/>
-      <c r="Q1018" s="2"/>
-      <c r="R1018" s="2"/>
-      <c r="S1018" s="2"/>
-      <c r="T1018" s="2"/>
-      <c r="U1018" s="2"/>
-      <c r="V1018" s="2"/>
-      <c r="W1018" s="2"/>
-      <c r="X1018" s="2"/>
-      <c r="Y1018" s="2"/>
-      <c r="Z1018" s="2"/>
-      <c r="AA1018" s="2"/>
-      <c r="AB1018" s="2"/>
-      <c r="AC1018" s="2"/>
-      <c r="AD1018" s="2"/>
-      <c r="AE1018" s="2"/>
-      <c r="AF1018" s="2"/>
-      <c r="AG1018" s="2"/>
-      <c r="AH1018" s="2"/>
-      <c r="AI1018" s="2"/>
-    </row>
-    <row r="1019" spans="1:35" ht="12.75">
-      <c r="A1019" s="2"/>
-      <c r="B1019" s="2"/>
-      <c r="C1019" s="2"/>
-      <c r="D1019" s="2"/>
-      <c r="E1019" s="2"/>
-      <c r="F1019" s="2"/>
-      <c r="G1019" s="2"/>
-      <c r="H1019" s="2"/>
-      <c r="I1019" s="2"/>
-      <c r="J1019" s="2"/>
-      <c r="K1019" s="2"/>
-      <c r="L1019" s="2"/>
-      <c r="M1019" s="2"/>
-      <c r="N1019" s="2"/>
-      <c r="O1019" s="2"/>
-      <c r="P1019" s="2"/>
-      <c r="Q1019" s="2"/>
-      <c r="R1019" s="2"/>
-      <c r="S1019" s="2"/>
-      <c r="T1019" s="2"/>
-      <c r="U1019" s="2"/>
-      <c r="V1019" s="2"/>
-      <c r="W1019" s="2"/>
-      <c r="X1019" s="2"/>
-      <c r="Y1019" s="2"/>
-      <c r="Z1019" s="2"/>
-      <c r="AA1019" s="2"/>
-      <c r="AB1019" s="2"/>
-      <c r="AC1019" s="2"/>
-      <c r="AD1019" s="2"/>
-      <c r="AE1019" s="2"/>
-      <c r="AF1019" s="2"/>
-      <c r="AG1019" s="2"/>
-      <c r="AH1019" s="2"/>
-      <c r="AI1019" s="2"/>
-    </row>
-    <row r="1020" spans="1:35" ht="12.75">
-      <c r="A1020" s="2"/>
-      <c r="B1020" s="2"/>
-      <c r="C1020" s="2"/>
-      <c r="D1020" s="2"/>
-      <c r="E1020" s="2"/>
-      <c r="F1020" s="2"/>
-      <c r="G1020" s="2"/>
-      <c r="H1020" s="2"/>
-      <c r="I1020" s="2"/>
-      <c r="J1020" s="2"/>
-      <c r="K1020" s="2"/>
-      <c r="L1020" s="2"/>
-      <c r="M1020" s="2"/>
-      <c r="N1020" s="2"/>
-      <c r="O1020" s="2"/>
-      <c r="P1020" s="2"/>
-      <c r="Q1020" s="2"/>
-      <c r="R1020" s="2"/>
-      <c r="S1020" s="2"/>
-      <c r="T1020" s="2"/>
-      <c r="U1020" s="2"/>
-      <c r="V1020" s="2"/>
-      <c r="W1020" s="2"/>
-      <c r="X1020" s="2"/>
-      <c r="Y1020" s="2"/>
-      <c r="Z1020" s="2"/>
-      <c r="AA1020" s="2"/>
-      <c r="AB1020" s="2"/>
-      <c r="AC1020" s="2"/>
-      <c r="AD1020" s="2"/>
-      <c r="AE1020" s="2"/>
-      <c r="AF1020" s="2"/>
-      <c r="AG1020" s="2"/>
-      <c r="AH1020" s="2"/>
-      <c r="AI1020" s="2"/>
-    </row>
-    <row r="1021" spans="1:35" ht="12.75">
-      <c r="A1021" s="2"/>
-      <c r="B1021" s="2"/>
-      <c r="C1021" s="2"/>
-      <c r="D1021" s="2"/>
-      <c r="E1021" s="2"/>
-      <c r="F1021" s="2"/>
-      <c r="G1021" s="2"/>
-      <c r="H1021" s="2"/>
-      <c r="I1021" s="2"/>
-      <c r="J1021" s="2"/>
-      <c r="K1021" s="2"/>
-      <c r="L1021" s="2"/>
-      <c r="M1021" s="2"/>
-      <c r="N1021" s="2"/>
-      <c r="O1021" s="2"/>
-      <c r="P1021" s="2"/>
-      <c r="Q1021" s="2"/>
-      <c r="R1021" s="2"/>
-      <c r="S1021" s="2"/>
-      <c r="T1021" s="2"/>
-      <c r="U1021" s="2"/>
-      <c r="V1021" s="2"/>
-      <c r="W1021" s="2"/>
-      <c r="X1021" s="2"/>
-      <c r="Y1021" s="2"/>
-      <c r="Z1021" s="2"/>
-      <c r="AA1021" s="2"/>
-      <c r="AB1021" s="2"/>
-      <c r="AC1021" s="2"/>
-      <c r="AD1021" s="2"/>
-      <c r="AE1021" s="2"/>
-      <c r="AF1021" s="2"/>
-      <c r="AG1021" s="2"/>
-      <c r="AH1021" s="2"/>
-      <c r="AI1021" s="2"/>
-    </row>
-    <row r="1022" spans="1:35" ht="12.75">
-      <c r="A1022" s="2"/>
-      <c r="B1022" s="2"/>
-      <c r="C1022" s="2"/>
-      <c r="D1022" s="2"/>
-      <c r="E1022" s="2"/>
-      <c r="F1022" s="2"/>
-      <c r="G1022" s="2"/>
-      <c r="H1022" s="2"/>
-      <c r="I1022" s="2"/>
-      <c r="J1022" s="2"/>
-      <c r="K1022" s="2"/>
-      <c r="L1022" s="2"/>
-      <c r="M1022" s="2"/>
-      <c r="N1022" s="2"/>
-      <c r="O1022" s="2"/>
-      <c r="P1022" s="2"/>
-      <c r="Q1022" s="2"/>
-      <c r="R1022" s="2"/>
-      <c r="S1022" s="2"/>
-      <c r="T1022" s="2"/>
-      <c r="U1022" s="2"/>
-      <c r="V1022" s="2"/>
-      <c r="W1022" s="2"/>
-      <c r="X1022" s="2"/>
-      <c r="Y1022" s="2"/>
-      <c r="Z1022" s="2"/>
-      <c r="AA1022" s="2"/>
-      <c r="AB1022" s="2"/>
-      <c r="AC1022" s="2"/>
-      <c r="AD1022" s="2"/>
-      <c r="AE1022" s="2"/>
-      <c r="AF1022" s="2"/>
-      <c r="AG1022" s="2"/>
-      <c r="AH1022" s="2"/>
-      <c r="AI1022" s="2"/>
-    </row>
-    <row r="1023" spans="1:35" ht="12.75">
-      <c r="A1023" s="2"/>
-      <c r="B1023" s="2"/>
-      <c r="C1023" s="2"/>
-      <c r="D1023" s="2"/>
-      <c r="E1023" s="2"/>
-      <c r="F1023" s="2"/>
-      <c r="G1023" s="2"/>
-      <c r="H1023" s="2"/>
-      <c r="I1023" s="2"/>
-      <c r="J1023" s="2"/>
-      <c r="K1023" s="2"/>
-      <c r="L1023" s="2"/>
-      <c r="M1023" s="2"/>
-      <c r="N1023" s="2"/>
-      <c r="O1023" s="2"/>
-      <c r="P1023" s="2"/>
-      <c r="Q1023" s="2"/>
-      <c r="R1023" s="2"/>
-      <c r="S1023" s="2"/>
-      <c r="T1023" s="2"/>
-      <c r="U1023" s="2"/>
-      <c r="V1023" s="2"/>
-      <c r="W1023" s="2"/>
-      <c r="X1023" s="2"/>
-      <c r="Y1023" s="2"/>
-      <c r="Z1023" s="2"/>
-      <c r="AA1023" s="2"/>
-      <c r="AB1023" s="2"/>
-      <c r="AC1023" s="2"/>
-      <c r="AD1023" s="2"/>
-      <c r="AE1023" s="2"/>
-      <c r="AF1023" s="2"/>
-      <c r="AG1023" s="2"/>
-      <c r="AH1023" s="2"/>
-      <c r="AI1023" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576" xr:uid="{2041863A-7358-43B7-AF7D-23080F64E586}"/>
@@ -40032,59 +38089,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>90</v>
+      <c r="A1" s="5" t="s">
+        <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>91</v>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="11" t="s">
-        <v>92</v>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" ht="12.75">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>93</v>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:26" ht="12.75">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>94</v>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="11" t="s">
-        <v>95</v>
+    <row r="4" spans="1:26" ht="12.75">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>96</v>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkass\OneDrive\Documents\GitHub\Potentially-Traumatic-Experiences-Ontology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7eb46d052d0a8996/Documents/GitHub/Potentially-Traumatic-Experiences-Ontology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51E0F9D-E478-419D-93F1-B085E69C400B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E51E0F9D-E478-419D-93F1-B085E69C400B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14526A4F-B583-47F6-ADD4-A39418AA50DA}"/>
   <bookViews>
-    <workbookView xWindow="353" yWindow="368" windowWidth="20939" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -248,43 +248,10 @@
     <t>process</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF292929"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>An [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>occurrent]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF292929"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> that has temporal proper parts and for some time t.</t>
-    </r>
-  </si>
-  <si>
     <t>occurrent</t>
   </si>
   <si>
     <t>Something that happens over time and involves some kind of change.</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
   </si>
   <si>
     <t>potentially traumatic experience</t>
@@ -408,9 +375,6 @@
   </si>
   <si>
     <t>experience of racial trauma</t>
-  </si>
-  <si>
-    <t>TSTO:000001</t>
   </si>
   <si>
     <t>potentially traumatic experience type</t>
@@ -562,12 +526,21 @@
   <si>
     <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
   </si>
+  <si>
+    <t>An occurrent that has temporal proper parts and for some time t.</t>
+  </si>
+  <si>
+    <t>The whole of someone's life story including what they do and what happens to them.</t>
+  </si>
+  <si>
+    <t>A part of a person's life story.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -613,13 +586,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF292929"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -696,16 +662,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,14 +677,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,37 +910,37 @@
   <dimension ref="A1:AI994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.73046875" customWidth="1"/>
-    <col min="2" max="2" width="30.265625" customWidth="1"/>
-    <col min="3" max="3" width="57.59765625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="43.3984375" customWidth="1"/>
-    <col min="6" max="6" width="30.265625" customWidth="1"/>
-    <col min="7" max="8" width="22.265625" customWidth="1"/>
-    <col min="9" max="9" width="22.86328125" customWidth="1"/>
-    <col min="10" max="10" width="30.3984375" customWidth="1"/>
-    <col min="11" max="11" width="20.59765625" customWidth="1"/>
-    <col min="12" max="13" width="20.3984375" customWidth="1"/>
-    <col min="14" max="14" width="63.3984375" customWidth="1"/>
-    <col min="16" max="16" width="33.3984375" customWidth="1"/>
-    <col min="17" max="17" width="27.1328125" customWidth="1"/>
-    <col min="18" max="18" width="31.1328125" customWidth="1"/>
-    <col min="19" max="19" width="34.86328125" customWidth="1"/>
-    <col min="20" max="20" width="26.73046875" customWidth="1"/>
-    <col min="21" max="21" width="28.73046875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="63.42578125" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" customWidth="1"/>
+    <col min="17" max="17" width="27.140625" customWidth="1"/>
+    <col min="18" max="18" width="31.140625" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.15">
+    <row r="1" spans="1:35" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -989,13 +955,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -1010,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1022,19 +988,19 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -1058,25 +1024,23 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1104,22 +1068,25 @@
     </row>
     <row r="3" spans="1:35" ht="25.5">
       <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>47</v>
+      <c r="E3" t="s">
+        <v>107</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="14" t="s">
-        <v>68</v>
+      <c r="I3" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="2"/>
@@ -1150,23 +1117,25 @@
     </row>
     <row r="4" spans="1:35" ht="12.75">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
@@ -1196,17 +1165,15 @@
       <c r="AI4" s="2"/>
     </row>
     <row r="5" spans="1:35" ht="38.25">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1216,18 +1183,18 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1249,16 +1216,16 @@
     <row r="6" spans="1:35" ht="38.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>62</v>
+      <c r="C6" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1267,7 +1234,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1276,7 +1243,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -1298,20 +1265,20 @@
     <row r="7" spans="1:35" ht="25.5">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>61</v>
+      <c r="C7" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1323,7 +1290,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1345,13 +1312,13 @@
     <row r="8" spans="1:35" ht="25.5">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>66</v>
+      <c r="C8" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1363,14 +1330,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1392,34 +1359,34 @@
     <row r="9" spans="1:35" ht="63.75">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>104</v>
+      <c r="C9" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1441,20 +1408,20 @@
     <row r="10" spans="1:35" ht="25.5">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>102</v>
+      <c r="C10" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1466,7 +1433,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1488,13 +1455,13 @@
     <row r="11" spans="1:35" ht="25.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>84</v>
+      <c r="C11" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1511,7 +1478,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1533,38 +1500,38 @@
     <row r="12" spans="1:35" ht="51">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1586,13 +1553,13 @@
     <row r="13" spans="1:35" ht="38.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1602,18 +1569,18 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1635,13 +1602,13 @@
     <row r="14" spans="1:35" ht="25.5">
       <c r="A14" s="2"/>
       <c r="B14" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1651,18 +1618,18 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1684,13 +1651,13 @@
     <row r="15" spans="1:35" ht="25.5">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1700,18 +1667,18 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1732,14 +1699,14 @@
     </row>
     <row r="16" spans="1:35" ht="25.5">
       <c r="A16" s="2"/>
-      <c r="B16" s="12" t="s">
-        <v>50</v>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>82</v>
+      <c r="C16" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1749,18 +1716,18 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1781,14 +1748,14 @@
     </row>
     <row r="17" spans="1:35" ht="38.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="12" t="s">
-        <v>80</v>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1798,18 +1765,18 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1830,14 +1797,14 @@
     </row>
     <row r="18" spans="1:35" ht="25.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="12" t="s">
-        <v>51</v>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>81</v>
+      <c r="C18" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1847,18 +1814,18 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1879,14 +1846,14 @@
     </row>
     <row r="19" spans="1:35" ht="12.75">
       <c r="A19" s="2"/>
-      <c r="B19" s="12" t="s">
-        <v>52</v>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>85</v>
+      <c r="C19" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1896,18 +1863,18 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1928,14 +1895,14 @@
     </row>
     <row r="20" spans="1:35" ht="38.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="12" t="s">
-        <v>53</v>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1945,18 +1912,18 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1977,14 +1944,14 @@
     </row>
     <row r="21" spans="1:35" ht="25.5">
       <c r="A21" s="2"/>
-      <c r="B21" s="12" t="s">
-        <v>54</v>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1994,18 +1961,18 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -2026,14 +1993,14 @@
     </row>
     <row r="22" spans="1:35" ht="12.75">
       <c r="A22" s="2"/>
-      <c r="B22" s="12" t="s">
-        <v>55</v>
+      <c r="B22" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2043,18 +2010,18 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -2075,14 +2042,14 @@
     </row>
     <row r="23" spans="1:35" ht="25.5">
       <c r="A23" s="2"/>
-      <c r="B23" s="12" t="s">
-        <v>56</v>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2092,18 +2059,18 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -2124,14 +2091,14 @@
     </row>
     <row r="24" spans="1:35" ht="25.5">
       <c r="A24" s="2"/>
-      <c r="B24" s="12" t="s">
-        <v>57</v>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2141,18 +2108,18 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -2173,7 +2140,7 @@
     </row>
     <row r="25" spans="1:35" ht="12.75">
       <c r="A25" s="2"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -38065,11 +38032,8 @@
   <dataValidations count="1">
     <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M1048576" xr:uid="{2041863A-7358-43B7-AF7D-23080F64E586}"/>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38082,18 +38046,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.265625" customWidth="1"/>
-    <col min="2" max="2" width="31.73046875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -38122,26 +38086,26 @@
     </row>
     <row r="2" spans="1:26" ht="12.75">
       <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="12.75">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:26" ht="12.75">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="12.75">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1477,7 +1477,7 @@
           <t>Something that happens over time and involves some kind of change.</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="n"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1477,7 +1477,7 @@
           <t>Something that happens over time and involves some kind of change.</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
+      <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="n"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -445,19 +445,19 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Parent class</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Parent class</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Logical definition</t>
@@ -470,29 +470,29 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Entity URL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Entity URL</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Curation note</t>
@@ -510,32 +510,32 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Curator</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'tso:experienceOf'</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'owl:equivalentClass'</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Curation status</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'tso:experienceOf'</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'owl:equivalentClass'</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Reviewer query</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Curator</t>
         </is>
       </c>
     </row>
@@ -548,51 +548,47 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Experience of an occurrence that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people </t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>mishap</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
-        </is>
-      </c>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
+        </is>
+      </c>
       <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n"/>
@@ -601,45 +597,45 @@
           <t>disaster experience</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
-        </is>
-      </c>
+      <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+        </is>
+      </c>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
@@ -648,45 +644,45 @@
           <t xml:space="preserve">experience of bereavement </t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Experience of the death of a loved one</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+        </is>
+      </c>
       <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
@@ -695,45 +691,45 @@
           <t>experience of forced labor</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Experience of being forced to provide labor against one's will</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for slavery, human trafficking</t>
-        </is>
-      </c>
+      <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for slavery, human trafficking</t>
+        </is>
+      </c>
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -742,45 +738,45 @@
           <t>experience of incarceration</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Experience of being held against one's will by a government or other state actor</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
-        </is>
-      </c>
+      <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
+        </is>
+      </c>
       <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -789,45 +785,45 @@
           <t>experience of interpersonal abuse</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
-        </is>
-      </c>
+      <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+        </is>
+      </c>
       <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -836,45 +832,45 @@
           <t>experience of interpersonal violence outside the household</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Experience of violence directed at an individual by a person outside their household</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
-        </is>
-      </c>
+      <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+        </is>
+      </c>
       <c r="M8" s="2" t="n"/>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -883,45 +879,45 @@
           <t>experience of mass violence</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Experience of violence directed at a group of people</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
-        </is>
-      </c>
+      <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+        </is>
+      </c>
       <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
@@ -930,45 +926,45 @@
           <t>experience of migration or displacement</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
-        </is>
-      </c>
+      <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+        </is>
+      </c>
       <c r="M10" s="2" t="n"/>
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n"/>
@@ -977,45 +973,45 @@
           <t>experience of racial trauma</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Experience of adverse events related to a person's racial or ethnic identity</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
-        </is>
-      </c>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+        </is>
+      </c>
       <c r="M11" s="2" t="n"/>
       <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
@@ -1024,45 +1020,45 @@
           <t>experience of violent social environment</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
-        </is>
-      </c>
+      <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+        </is>
+      </c>
       <c r="M12" s="2" t="n"/>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="n"/>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
@@ -1071,45 +1067,45 @@
           <t>experience of war or armed conflict</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Experience of armed conflict between states or other military groups</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
-        </is>
-      </c>
+      <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
+        </is>
+      </c>
       <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="n"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
@@ -1118,45 +1114,45 @@
           <t>health-related experience</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>Experience of health-related event(s) or treatment</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
-        </is>
-      </c>
+      <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+        </is>
+      </c>
       <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="n"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
@@ -1164,17 +1160,17 @@
           <t>nature of exposure to potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1193,20 +1189,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>The whole of someone's life story including what they do and what happens to them.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>A history that is of a person.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>The whole of someone's life story including what they do and what happens to them.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>experienced event; exposure</t>
         </is>
@@ -1225,20 +1221,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>A part of a person's life story.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>A process that is part of a personal history.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>A part of a person's life story.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>trauma exposure</t>
         </is>
@@ -1251,45 +1247,45 @@
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>personal history part</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>A personal history part that may lead to traumatic stress responses</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>personal history part</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="n"/>
       <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
-        </is>
-      </c>
+      <c r="I18" s="2" t="n"/>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
+        </is>
+      </c>
       <c r="M18" s="2" t="n"/>
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q18" s="2" t="n"/>
       <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T18" s="2" t="n"/>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -1297,22 +1293,22 @@
           <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>intentionality</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1327,17 +1323,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">potentially traumatic experience </t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience </t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
         </is>
       </c>
       <c r="F20" s="2" t="n"/>
@@ -1352,18 +1348,18 @@
       <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="n"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
@@ -1371,27 +1367,27 @@
           <t>potentially traumatic experience severity</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>intensity</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1403,22 +1399,22 @@
           <t>potentially traumatic experience time course</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>An attribute of a potentially traumatic experience that is its chronicity</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1430,22 +1426,22 @@
           <t>potentially traumatic experience type</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>event type</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1464,20 +1460,20 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>Something that happens over time and involves some kind of change.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>An occurrent that has temporal proper parts and for some time t.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Something that happens over time and involves some kind of change.</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="n"/>
@@ -1487,14 +1483,14 @@
       <c r="M24" s="2" t="n"/>
       <c r="N24" s="2" t="n"/>
       <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="P24" s="2" t="n"/>
       <c r="Q24" s="2" t="n"/>
       <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="n"/>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T24" s="2" t="n"/>
       <c r="U24" s="2" t="n"/>
     </row>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -564,7 +564,7 @@
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="2" t="inlineStr">

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1,50 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
+      <b/>
+      <sz val="12.000000"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ebfad0"/>
+        <fgColor rgb="FFEBFAD0"/>
+        <bgColor rgb="FFEBFAD0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -58,90 +57,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -187,13 +119,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -221,13 +153,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -424,13 +356,283 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +658,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Parent class</t>
+          <t xml:space="preserve">Parent class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Informal definition</t>
+          <t xml:space="preserve">Informal definition</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Logical definition</t>
+          <t xml:space="preserve">Logical definition</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>BFO Entity</t>
+          <t xml:space="preserve">BFO Entity</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -486,7 +688,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Entity URL</t>
+          <t xml:space="preserve">Entity URL</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -501,17 +703,17 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Curation note</t>
+          <t xml:space="preserve">Curation note</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Why fuzzy</t>
+          <t xml:space="preserve">Why fuzzy</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Fuzzy class</t>
+          <t xml:space="preserve">Fuzzy class</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -521,17 +723,17 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>REL 'tsto:experienceOf'</t>
+          <t xml:space="preserve">REL 'tsto:experienceOf'</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>REL 'owl:equivalentClass'</t>
+          <t xml:space="preserve">REL 'owl:equivalentClass'</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Curation status</t>
+          <t xml:space="preserve">Curation status</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -541,15 +743,15 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Reviewer query</t>
+          <t xml:space="preserve">Reviewer query</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>experience of accident</t>
+          <t xml:space="preserve">experience of accident</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -559,45 +761,45 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
+          <t xml:space="preserve">potentially traumatic experience</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
+          <t xml:space="preserve">Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
+        </is>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
+          <t xml:space="preserve">includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
+        </is>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="n"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">experience of bereavement </t>
@@ -605,575 +807,575 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Experience of the death of a loved one</t>
+          <t xml:space="preserve">Experience of the death of a loved one</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
+          <t xml:space="preserve">need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+        </is>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>experience of disaster</t>
+          <t xml:space="preserve">experience of disaster</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
+          <t xml:space="preserve">Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
+          <t xml:space="preserve">includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+        </is>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>experience of forced labor</t>
+          <t xml:space="preserve">experience of forced labor</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Experience of being forced to provide labor against one's will</t>
+          <t xml:space="preserve">Experience of being forced to provide labor against one's will</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for slavery, human trafficking</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
+          <t xml:space="preserve">includes sub-classes for slavery, human trafficking</t>
+        </is>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>experience of health event</t>
+          <t xml:space="preserve">experience of health event</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Experience of health-related event(s) or treatment</t>
+          <t xml:space="preserve">Experience of health-related event(s) or treatment</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
+          <t xml:space="preserve">includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+        </is>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>experience of incarceration</t>
+          <t xml:space="preserve">experience of incarceration</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Experience of being held against one's will by a government or other state actor</t>
+          <t xml:space="preserve">Experience of being held against one's will by a government or other state actor</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="n"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>experience of interpersonal abuse</t>
+          <t xml:space="preserve">experience of interpersonal abuse</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
+          <t xml:space="preserve">Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
+          <t xml:space="preserve">includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+        </is>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="n"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>experience of interpersonal violence outside the household</t>
+          <t xml:space="preserve">experience of interpersonal violence outside the household</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Experience of violence directed at an individual by a person outside their household</t>
+          <t xml:space="preserve">Experience of violence directed at an individual by a person outside their household</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
+          <t xml:space="preserve">includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+        </is>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="n"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>experience of mass violence</t>
+          <t xml:space="preserve">experience of mass violence</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Experience of violence directed at a group of people</t>
+          <t xml:space="preserve">Experience of violence directed at a group of people</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
+          <t xml:space="preserve">includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+        </is>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>experience of migration or displacement</t>
+          <t xml:space="preserve">experience of migration or displacement</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
+          <t xml:space="preserve">Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
+          <t xml:space="preserve">might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+        </is>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>experience of racial trauma</t>
+          <t xml:space="preserve">experience of racial trauma</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Experience of adverse events related to a person's racial or ethnic identity</t>
+          <t xml:space="preserve">Experience of adverse events related to a person's racial or ethnic identity</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
+          <t xml:space="preserve">includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+        </is>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="n"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>experience of violent social environment</t>
+          <t xml:space="preserve">experience of violent social environment</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
+          <t xml:space="preserve">Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
         </is>
       </c>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>experience of war or armed conflict</t>
+          <t xml:space="preserve">experience of war or armed conflict</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Experience of armed conflict between states or other military groups</t>
+          <t xml:space="preserve">Experience of armed conflict between states or other military groups</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
+          <t xml:space="preserve">potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
+          <t xml:space="preserve">includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
+        </is>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="n"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>nature of exposure to potentially traumatic experience</t>
+          <t xml:space="preserve">nature of exposure to potentially traumatic experience</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
+          <t xml:space="preserve">An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
+          <t xml:space="preserve">potentially traumatic experience attribute</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1190,12 +1392,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>personal history</t>
+          <t xml:space="preserve">personal history</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A history that is of a person.</t>
+          <t xml:space="preserve">A history that is of a person.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1205,12 +1407,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The whole of someone's life story including what they do and what happens to them.</t>
+          <t xml:space="preserve">The whole of someone's life story including what they do and what happens to them.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>experienced event; exposure</t>
+          <t xml:space="preserve">experienced event; exposure</t>
         </is>
       </c>
     </row>
@@ -1222,12 +1424,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>personal history part</t>
+          <t xml:space="preserve">personal history part</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A process that is part of a personal history.</t>
+          <t xml:space="preserve">A process that is part of a personal history.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1237,61 +1439,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A part of a person's life story.</t>
+          <t xml:space="preserve">A part of a person's life story.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>trauma exposure</t>
+          <t xml:space="preserve">trauma exposure</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>potentially traumatic experience</t>
+          <t xml:space="preserve">potentially traumatic experience</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>A personal history part that may lead to traumatic stress responses</t>
+          <t xml:space="preserve">A personal history part that may lead to traumatic stress responses</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>personal history part</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
+          <t xml:space="preserve">personal history part</t>
+        </is>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
-        </is>
-      </c>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="3" t="n"/>
+          <t xml:space="preserve">There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
+        </is>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="3" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="3" t="n"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T18" s="3" t="n"/>
-      <c r="U18" s="3" t="n"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
@@ -1301,12 +1503,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
+          <t xml:space="preserve">An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
+          <t xml:space="preserve">potentially traumatic experience attribute</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1321,10 +1523,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
+          <t xml:space="preserve">potentially traumatic experience attribute</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1339,48 +1541,48 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
+          <t xml:space="preserve">Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
+        </is>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>potentially traumatic experience severity</t>
+          <t xml:space="preserve">potentially traumatic experience severity</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
+          <t xml:space="preserve">An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
+          <t xml:space="preserve">potentially traumatic experience attribute</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1390,7 +1592,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
+          <t xml:space="preserve">Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1402,22 +1604,22 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>potentially traumatic experience time course</t>
+          <t xml:space="preserve">potentially traumatic experience time course</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
+          <t xml:space="preserve">An attribute of a potentially traumatic experience that is its chronicity</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
+          <t xml:space="preserve">potentially traumatic experience attribute</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
+          <t xml:space="preserve">include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1429,22 +1631,22 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>potentially traumatic experience type</t>
+          <t xml:space="preserve">potentially traumatic experience type</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
+          <t xml:space="preserve">An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
+          <t xml:space="preserve">potentially traumatic experience attribute</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>event type</t>
+          <t xml:space="preserve">event type</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1466,7 +1668,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t.</t>
+          <t xml:space="preserve">An occurrent that has temporal proper parts and for some time t.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1476,29 +1678,29 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Something that happens over time and involves some kind of change.</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="n"/>
-      <c r="R24" s="2" t="n"/>
+          <t xml:space="preserve">Something that happens over time and involves some kind of change.</t>
+        </is>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T24" s="2" t="n"/>
-      <c r="U24" s="2" t="n"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -9,8 +9,319 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informal definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFO Entity</t>
+  </si>
+  <si>
+    <t>Sub-ontology</t>
+  </si>
+  <si>
+    <t>Synonyms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity URL</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curation note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why fuzzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzzy class</t>
+  </si>
+  <si>
+    <t>Curator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REL 'tsto:experienceOf'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REL 'owl:equivalentClass'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curation status</t>
+  </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewer query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of accident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of an occurrence that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people </t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially traumatic experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
+  </si>
+  <si>
+    <t>NKA</t>
+  </si>
+  <si>
+    <t>Pre-proposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of bereavement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of the death of a loved one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of disaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of forced labor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of being forced to provide labor against one's will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for slavery, human trafficking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of health event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of health-related event(s) or treatment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of incarceration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of being held against one's will by a government or other state actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of interpersonal abuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of interpersonal violence outside the household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of violence directed at an individual by a person outside their household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of mass violence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of violence directed at a group of people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of migration or displacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of racial trauma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of adverse events related to a person's racial or ethnic identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of violent social environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">experience of war or armed conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience of armed conflict between states or other military groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nature of exposure to potentially traumatic experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially traumatic experience attribute</t>
+  </si>
+  <si>
+    <t>BCIO:015161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A history that is of a person.</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The whole of someone's life story including what they do and what happens to them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experienced event; exposure</t>
+  </si>
+  <si>
+    <t>BCIO:050487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personal history part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A process that is part of a personal history.</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A part of a person's life story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trauma exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A personal history part that may lead to traumatic stress responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
+  </si>
+  <si>
+    <t>intentionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially traumatic experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially traumatic experience severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially traumatic experience time course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attribute of a potentially traumatic experience that is its chronicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include sub-classes for chronicity, frequency, duration, age at onset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially traumatic experience type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event type</t>
+  </si>
+  <si>
+    <t>BFO:0000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An occurrent that has temporal proper parts and for some time t.</t>
+  </si>
+  <si>
+    <t>occurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something that happens over time and involves some kind of change.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,19 +368,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" quotePrefix="0" pivotButton="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -402,69 +718,11 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,7 +730,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -495,7 +753,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -575,7 +833,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -597,11 +855,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -616,9 +872,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -630,144 +884,94 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Definition</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parent class</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Informal definition</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Logical definition</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BFO Entity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entity URL</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Curation note</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Why fuzzy</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuzzy class</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Curator</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REL 'tsto:experienceOf'</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">REL 'owl:equivalentClass'</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Curation status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Reviewer query</t>
-        </is>
+    <row r="1" ht="16.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2"/>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of accident</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of an occurrence that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people </t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
-        </is>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -775,45 +979,33 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
-        </is>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S2" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of bereavement </t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of the death of a loved one</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -822,45 +1014,33 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
-        </is>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of disaster</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -869,45 +1049,33 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
-        </is>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of forced labor</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of being forced to provide labor against one's will</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -916,45 +1084,33 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for slavery, human trafficking</t>
-        </is>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of health event</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of health-related event(s) or treatment</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -963,45 +1119,33 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
-        </is>
+      <c r="L6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of incarceration</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of being held against one's will by a government or other state actor</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1010,45 +1154,33 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
-        </is>
+      <c r="L7" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of interpersonal abuse</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1057,45 +1189,33 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
-        </is>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S8" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of interpersonal violence outside the household</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of violence directed at an individual by a person outside their household</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1104,45 +1224,33 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
-        </is>
+      <c r="L9" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P9" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of mass violence</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of violence directed at a group of people</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1151,45 +1259,33 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for mass injury or homicide, terrorism, genocide</t>
-        </is>
+      <c r="L10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P10" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of migration or displacement</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1198,45 +1294,33 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
-        </is>
+      <c r="L11" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P11" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S11" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of racial trauma</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of adverse events related to a person's racial or ethnic identity</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1245,45 +1329,33 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
-        </is>
+      <c r="L12" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P12" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of violent social environment</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1292,45 +1364,33 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
-        </is>
+      <c r="L13" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P13" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S13" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experience of war or armed conflict</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of armed conflict between states or other military groups</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1339,131 +1399,87 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
-        </is>
+      <c r="L14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P14" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S14" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nature of exposure to potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>BCIO:015161</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">personal history</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A history that is of a person.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The whole of someone's life story including what they do and what happens to them.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">experienced event; exposure</t>
-        </is>
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BCIO:050487</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">personal history part</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A process that is part of a personal history.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A part of a person's life story.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">trauma exposure</t>
-        </is>
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A personal history part that may lead to traumatic stress responses</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">personal history part</t>
-        </is>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1472,77 +1488,53 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
-        </is>
+      <c r="L18" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
+      <c r="S18" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience </t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
-        </is>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1554,132 +1546,86 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="P20" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience severity</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience time course</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An attribute of a potentially traumatic experience that is its chronicity</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">include sub-classes for chronicity, frequency, duration, age at onset</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience type</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">event type</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>BFO:0000015</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An occurrent that has temporal proper parts and for some time t.</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Something that happens over time and involves some kind of change.</t>
-        </is>
+      <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1694,15 +1640,16 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
+      <c r="S24" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
   </sheetData>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Definition</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000001</t>
+          <t>TSTO:0000015</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -558,17 +558,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">Experience of an occurrence that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people </t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
           <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of an occurrence that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people </t>
         </is>
       </c>
       <c r="F2" s="2" t="n"/>
@@ -611,17 +611,17 @@
           <t xml:space="preserve">experience of bereavement </t>
         </is>
       </c>
-      <c r="C3" s="2" t="n"/>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Experience of the death of a loved one</t>
+        </is>
+      </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Experience of the death of a loved one</t>
-        </is>
-      </c>
+      <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
@@ -662,17 +662,17 @@
           <t>experience of disaster</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
+        </is>
+      </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
-        </is>
-      </c>
+      <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
@@ -713,17 +713,17 @@
           <t>experience of forced labor</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n"/>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Experience of being forced to provide labor against one's will</t>
+        </is>
+      </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Experience of being forced to provide labor against one's will</t>
-        </is>
-      </c>
+      <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
@@ -764,17 +764,17 @@
           <t>experience of health event</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n"/>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Experience of health-related event(s) or treatment</t>
+        </is>
+      </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Experience of health-related event(s) or treatment</t>
-        </is>
-      </c>
+      <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
@@ -815,17 +815,17 @@
           <t>experience of incarceration</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n"/>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Experience of being held against one's will by a government or other state actor</t>
+        </is>
+      </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Experience of being held against one's will by a government or other state actor</t>
-        </is>
-      </c>
+      <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
@@ -866,17 +866,17 @@
           <t>experience of interpersonal abuse</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
+        </is>
+      </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
-        </is>
-      </c>
+      <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
@@ -917,17 +917,17 @@
           <t>experience of interpersonal violence outside the household</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Experience of violence directed at an individual by a person outside their household</t>
+        </is>
+      </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Experience of violence directed at an individual by a person outside their household</t>
-        </is>
-      </c>
+      <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
@@ -968,17 +968,17 @@
           <t>experience of mass violence</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Experience of violence directed at a group of people</t>
+        </is>
+      </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Experience of violence directed at a group of people</t>
-        </is>
-      </c>
+      <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
@@ -1019,17 +1019,17 @@
           <t>experience of migration or displacement</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
+        </is>
+      </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
-        </is>
-      </c>
+      <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="n"/>
@@ -1070,17 +1070,17 @@
           <t>experience of racial trauma</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Experience of adverse events related to a person's racial or ethnic identity</t>
+        </is>
+      </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Experience of adverse events related to a person's racial or ethnic identity</t>
-        </is>
-      </c>
+      <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
@@ -1121,17 +1121,17 @@
           <t>experience of violent social environment</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
+        </is>
+      </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
-        </is>
-      </c>
+      <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
@@ -1172,17 +1172,17 @@
           <t>experience of war or armed conflict</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n"/>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Experience of armed conflict between states or other military groups</t>
+        </is>
+      </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Experience of armed conflict between states or other military groups</t>
-        </is>
-      </c>
+      <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
@@ -1223,15 +1223,14 @@
           <t>nature of exposure to potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1253,17 +1252,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>A history that is of a person.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>The whole of someone's life story including what they do and what happens to them.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>A history that is of a person.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1285,17 +1284,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>A process that is part of a personal history.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>A part of a person's life story.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>A process that is part of a personal history.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1307,7 +1306,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>TSTO:0000015</t>
+          <t>TSTO:0000001</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1315,17 +1314,17 @@
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C18" s="3" t="n"/>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>A personal history part that may lead to traumatic stress responses</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>A personal history part that may lead to traumatic stress responses</t>
-        </is>
-      </c>
+      <c r="E18" s="3" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
@@ -1366,14 +1365,14 @@
           <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1400,17 +1399,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">potentially traumatic experience </t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">potentially traumatic experience </t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
         </is>
       </c>
       <c r="F20" s="2" t="n"/>
@@ -1449,14 +1448,14 @@
           <t>potentially traumatic experience severity</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1486,14 +1485,14 @@
           <t>potentially traumatic experience time course</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1518,14 +1517,14 @@
           <t>potentially traumatic experience type</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1552,17 +1551,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>An occurrent that has temporal proper parts and for some time t.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>Something that happens over time and involves some kind of change.</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>An occurrent that has temporal proper parts and for some time t.</t>
         </is>
       </c>
       <c r="F24" s="2" t="n"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -476,29 +476,29 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Entity URL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Entity URL</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Curation note</t>
@@ -516,32 +516,32 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'tsto:experienceOf'</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'owl:equivalentClass'</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Curator</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'tsto:experienceOf'</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'owl:equivalentClass'</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
         </is>
       </c>
     </row>
@@ -574,31 +574,31 @@
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
+        </is>
+      </c>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
-        </is>
-      </c>
+      <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S2" s="2" t="n"/>
       <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
+      <c r="U2" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -625,31 +625,31 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+        </is>
+      </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
-        </is>
-      </c>
+      <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S3" s="2" t="n"/>
       <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -676,31 +676,31 @@
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+        </is>
+      </c>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
-        </is>
-      </c>
+      <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S4" s="2" t="n"/>
       <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -727,31 +727,31 @@
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for slavery, human trafficking</t>
+        </is>
+      </c>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for slavery, human trafficking</t>
-        </is>
-      </c>
+      <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S5" s="2" t="n"/>
       <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -778,31 +778,31 @@
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+        </is>
+      </c>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
-        </is>
-      </c>
+      <c r="L6" s="2" t="n"/>
       <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S6" s="2" t="n"/>
       <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -829,31 +829,31 @@
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
+        </is>
+      </c>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
-        </is>
-      </c>
+      <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S7" s="2" t="n"/>
       <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="n"/>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -880,31 +880,31 @@
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+        </is>
+      </c>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
-        </is>
-      </c>
+      <c r="L8" s="2" t="n"/>
       <c r="M8" s="2" t="n"/>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S8" s="2" t="n"/>
       <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -931,31 +931,31 @@
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+        </is>
+      </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
-        </is>
-      </c>
+      <c r="L9" s="2" t="n"/>
       <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S9" s="2" t="n"/>
       <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="n"/>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -982,31 +982,31 @@
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+        </is>
+      </c>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
-        </is>
-      </c>
+      <c r="L10" s="2" t="n"/>
       <c r="M10" s="2" t="n"/>
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S10" s="2" t="n"/>
       <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1033,31 +1033,31 @@
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+        </is>
+      </c>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
-        </is>
-      </c>
+      <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="n"/>
       <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S11" s="2" t="n"/>
       <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1084,31 +1084,31 @@
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+        </is>
+      </c>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
-        </is>
-      </c>
+      <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="n"/>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S12" s="2" t="n"/>
       <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="n"/>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1135,31 +1135,31 @@
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+        </is>
+      </c>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
-        </is>
-      </c>
+      <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S13" s="2" t="n"/>
       <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1186,31 +1186,31 @@
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
+        </is>
+      </c>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
-        </is>
-      </c>
+      <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S14" s="2" t="n"/>
       <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="n"/>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1233,7 +1233,7 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1265,7 +1265,7 @@
           <t>The whole of someone's life story including what they do and what happens to them.</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>experienced event; exposure</t>
         </is>
@@ -1297,7 +1297,7 @@
           <t>A part of a person's life story.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>trauma exposure</t>
         </is>
@@ -1328,31 +1328,31 @@
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
+        </is>
+      </c>
       <c r="J18" s="3" t="n"/>
       <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
-        </is>
-      </c>
+      <c r="L18" s="3" t="n"/>
       <c r="M18" s="3" t="n"/>
       <c r="N18" s="3" t="n"/>
       <c r="O18" s="3" t="n"/>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Proposed</t>
         </is>
       </c>
       <c r="Q18" s="3" t="n"/>
       <c r="R18" s="3" t="n"/>
-      <c r="S18" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="S18" s="3" t="n"/>
       <c r="T18" s="3" t="n"/>
-      <c r="U18" s="3" t="n"/>
+      <c r="U18" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1375,23 +1375,19 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>intentionality</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>TSTO:0000017</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
@@ -1424,18 +1420,18 @@
       <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>NKA</t>
+          <t>Pre-proposed</t>
         </is>
       </c>
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S20" s="2" t="n"/>
       <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1458,17 +1454,17 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
           <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1495,12 +1491,12 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1527,12 +1523,12 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>event type</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1574,14 +1570,14 @@
       <c r="M24" s="2" t="n"/>
       <c r="N24" s="2" t="n"/>
       <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="n"/>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="Q24" s="2" t="n"/>
       <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="S24" s="2" t="n"/>
       <c r="T24" s="2" t="n"/>
       <c r="U24" s="2" t="n"/>
     </row>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -476,29 +476,29 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Entity URL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Entity URL</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Curation note</t>
@@ -516,32 +516,32 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Curator</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'tsto:experienceOf'</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'owl:equivalentClass'</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Curation status</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'tsto:experienceOf'</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'owl:equivalentClass'</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Reviewer query</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Curator</t>
         </is>
       </c>
     </row>
@@ -574,31 +574,31 @@
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
-        </is>
-      </c>
+      <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
+        </is>
+      </c>
       <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -625,31 +625,31 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
-        </is>
-      </c>
+      <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+        </is>
+      </c>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -676,31 +676,31 @@
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+        </is>
+      </c>
       <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -727,31 +727,31 @@
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for slavery, human trafficking</t>
-        </is>
-      </c>
+      <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for slavery, human trafficking</t>
+        </is>
+      </c>
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -778,31 +778,31 @@
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
-        </is>
-      </c>
+      <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+        </is>
+      </c>
       <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -829,31 +829,31 @@
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
-        </is>
-      </c>
+      <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
+        </is>
+      </c>
       <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -880,31 +880,31 @@
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
-        </is>
-      </c>
+      <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+        </is>
+      </c>
       <c r="M8" s="2" t="n"/>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -931,31 +931,31 @@
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
-        </is>
-      </c>
+      <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+        </is>
+      </c>
       <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -982,31 +982,31 @@
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
-        </is>
-      </c>
+      <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+        </is>
+      </c>
       <c r="M10" s="2" t="n"/>
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1033,31 +1033,31 @@
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
-        </is>
-      </c>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+        </is>
+      </c>
       <c r="M11" s="2" t="n"/>
       <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1084,31 +1084,31 @@
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
-        </is>
-      </c>
+      <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+        </is>
+      </c>
       <c r="M12" s="2" t="n"/>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="n"/>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1135,31 +1135,31 @@
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
-        </is>
-      </c>
+      <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+        </is>
+      </c>
       <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="n"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1186,31 +1186,31 @@
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
-        </is>
-      </c>
+      <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
+        </is>
+      </c>
       <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="n"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1233,7 +1233,7 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1265,9 +1265,14 @@
           <t>The whole of someone's life story including what they do and what happens to them.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>experienced event; exposure</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
     </row>
@@ -1297,9 +1302,14 @@
           <t>A part of a person's life story.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>trauma exposure</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1326,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>A personal history part that may lead to traumatic stress responses</t>
+          <t>A personal history part that may lead to some traumatic stress response.</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1328,31 +1338,31 @@
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
-        </is>
-      </c>
+      <c r="I18" s="3" t="n"/>
       <c r="J18" s="3" t="n"/>
       <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="n"/>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
+        </is>
+      </c>
       <c r="M18" s="3" t="n"/>
       <c r="N18" s="3" t="n"/>
       <c r="O18" s="3" t="n"/>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q18" s="3" t="n"/>
       <c r="R18" s="3" t="n"/>
-      <c r="S18" s="3" t="n"/>
+      <c r="S18" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="T18" s="3" t="n"/>
-      <c r="U18" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1375,19 +1385,23 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>intentionality</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>TSTO:0000017</t>
+        </is>
+      </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
@@ -1420,18 +1434,18 @@
       <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="n"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1454,17 +1468,17 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>intensity</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1491,12 +1505,12 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1523,63 +1537,48 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>event type</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>BFO:0000015</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>An occurrent that has temporal proper parts and for some time t.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Something that happens over time and involves some kind of change.</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="n"/>
-      <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="n"/>
-      <c r="T24" s="2" t="n"/>
-      <c r="U24" s="2" t="n"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -476,29 +476,29 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Entity URL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Entity URL</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Curation note</t>
@@ -516,32 +516,32 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Curator</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'tsto:experienceOf'</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'owl:equivalentClass'</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Curation status</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'tsto:experienceOf'</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'owl:equivalentClass'</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Reviewer query</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Curator</t>
         </is>
       </c>
     </row>
@@ -574,31 +574,31 @@
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
-        </is>
-      </c>
+      <c r="I2" s="2" t="n"/>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
+        </is>
+      </c>
       <c r="M2" s="2" t="n"/>
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q2" s="2" t="n"/>
       <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="n"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -625,31 +625,31 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
-        </is>
-      </c>
+      <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+        </is>
+      </c>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q3" s="2" t="n"/>
       <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -676,31 +676,31 @@
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
       <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+        </is>
+      </c>
       <c r="M4" s="2" t="n"/>
       <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q4" s="2" t="n"/>
       <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -727,31 +727,31 @@
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for slavery, human trafficking</t>
-        </is>
-      </c>
+      <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for slavery, human trafficking</t>
+        </is>
+      </c>
       <c r="M5" s="2" t="n"/>
       <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q5" s="2" t="n"/>
       <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
@@ -778,31 +778,31 @@
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
-        </is>
-      </c>
+      <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+        </is>
+      </c>
       <c r="M6" s="2" t="n"/>
       <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q6" s="2" t="n"/>
       <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -829,31 +829,31 @@
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
-        </is>
-      </c>
+      <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
+        </is>
+      </c>
       <c r="M7" s="2" t="n"/>
       <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q7" s="2" t="n"/>
       <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="n"/>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -880,31 +880,31 @@
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
       <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
-        </is>
-      </c>
+      <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+        </is>
+      </c>
       <c r="M8" s="2" t="n"/>
       <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q8" s="2" t="n"/>
       <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="n"/>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -931,31 +931,31 @@
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
-        </is>
-      </c>
+      <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+        </is>
+      </c>
       <c r="M9" s="2" t="n"/>
       <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q9" s="2" t="n"/>
       <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="n"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U9" s="2" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -982,31 +982,31 @@
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
       <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
-        </is>
-      </c>
+      <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+        </is>
+      </c>
       <c r="M10" s="2" t="n"/>
       <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q10" s="2" t="n"/>
       <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="n"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1033,31 +1033,31 @@
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
       <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
-        </is>
-      </c>
+      <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+        </is>
+      </c>
       <c r="M11" s="2" t="n"/>
       <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q11" s="2" t="n"/>
       <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="n"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U11" s="2" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1084,31 +1084,31 @@
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
-        </is>
-      </c>
+      <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+        </is>
+      </c>
       <c r="M12" s="2" t="n"/>
       <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="n"/>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U12" s="2" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
@@ -1135,31 +1135,31 @@
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
-        </is>
-      </c>
+      <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+        </is>
+      </c>
       <c r="M13" s="2" t="n"/>
       <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q13" s="2" t="n"/>
       <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="n"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U13" s="2" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -1186,31 +1186,31 @@
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
       <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
-        </is>
-      </c>
+      <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
+        </is>
+      </c>
       <c r="M14" s="2" t="n"/>
       <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q14" s="2" t="n"/>
       <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="n"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1233,7 +1233,7 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1265,9 +1265,14 @@
           <t>The whole of someone's life story including what they do and what happens to them.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>experienced event; exposure</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
     </row>
@@ -1297,9 +1302,14 @@
           <t>A part of a person's life story.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>trauma exposure</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1326,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>A personal history part that may lead to traumatic stress responses</t>
+          <t>A personal history part that may lead to some traumatic stress response.</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1328,31 +1338,31 @@
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>There is lots of debate in the field about how and whether to define a class of events that are potentially traumatic.  Given that debate, I think best to state something along these lines.</t>
-        </is>
-      </c>
+      <c r="I18" s="3" t="n"/>
       <c r="J18" s="3" t="n"/>
       <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="n"/>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
+        </is>
+      </c>
       <c r="M18" s="3" t="n"/>
       <c r="N18" s="3" t="n"/>
       <c r="O18" s="3" t="n"/>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q18" s="3" t="n"/>
       <c r="R18" s="3" t="n"/>
-      <c r="S18" s="3" t="n"/>
+      <c r="S18" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="T18" s="3" t="n"/>
-      <c r="U18" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1375,19 +1385,19 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>intentionality</t>
         </is>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
+      <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
@@ -1420,18 +1430,18 @@
       <c r="O20" s="2" t="n"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="Q20" s="2" t="n"/>
       <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="n"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="U20" s="2" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1454,17 +1464,17 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>intensity</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1491,12 +1501,12 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1523,63 +1533,48 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>event type</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>BFO:0000015</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>An occurrent that has temporal proper parts and for some time t.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>occurrent</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Something that happens over time and involves some kind of change.</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="2" t="n"/>
-      <c r="O24" s="2" t="n"/>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="n"/>
-      <c r="R24" s="2" t="n"/>
-      <c r="S24" s="2" t="n"/>
-      <c r="T24" s="2" t="n"/>
-      <c r="U24" s="2" t="n"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -603,17 +603,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000002</t>
+          <t>TSTO:0000013</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">experience of bereavement </t>
+          <t>experience of armed conflict</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Experience of the death of a loved one</t>
+          <t>Experience of armed conflict between states or other military groups</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -630,7 +630,7 @@
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
         </is>
       </c>
       <c r="M3" s="2" t="n"/>
@@ -654,17 +654,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000003</t>
+          <t>TSTO:0000002</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>experience of disaster</t>
+          <t xml:space="preserve">experience of bereavement </t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
+          <t>Experience of the death of a loved one</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
         </is>
       </c>
       <c r="M4" s="2" t="n"/>
@@ -705,17 +705,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000004</t>
+          <t>TSTO:0000003</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>experience of forced labor</t>
+          <t>experience of disaster</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Experience of being forced to provide labor against one's will</t>
+          <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for slavery, human trafficking</t>
+          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
         </is>
       </c>
       <c r="M5" s="2" t="n"/>
@@ -756,17 +756,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000005</t>
+          <t>TSTO:0000004</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>experience of health event</t>
+          <t>experience of forced labor</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Experience of health-related event(s) or treatment</t>
+          <t>Experience of being forced to provide labor against one's will</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+          <t>includes sub-classes for slavery, human trafficking</t>
         </is>
       </c>
       <c r="M6" s="2" t="n"/>
@@ -807,17 +807,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000006</t>
+          <t>TSTO:0000005</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>experience of incarceration</t>
+          <t>experience of health event</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Experience of being held against one's will by a government or other state actor</t>
+          <t>Experience of health-related event(s) or treatment</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
+          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
         </is>
       </c>
       <c r="M7" s="2" t="n"/>
@@ -858,17 +858,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000007</t>
+          <t>TSTO:0000006</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>experience of interpersonal abuse</t>
+          <t>experience of incarceration</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
+          <t>Experience of being held against one's will by a government or other state actor</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -885,7 +885,7 @@
       <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
         </is>
       </c>
       <c r="M8" s="2" t="n"/>
@@ -909,17 +909,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000008</t>
+          <t>TSTO:0000007</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>experience of interpersonal violence outside the household</t>
+          <t>experience of interpersonal abuse</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Experience of violence directed at an individual by a person outside their household</t>
+          <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
         </is>
       </c>
       <c r="M9" s="2" t="n"/>
@@ -960,17 +960,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000009</t>
+          <t>TSTO:0000008</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>experience of mass violence</t>
+          <t>experience of interpersonal violence outside the household</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Experience of violence directed at a group of people</t>
+          <t>Experience of violence directed at an individual by a person outside their household</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
         </is>
       </c>
       <c r="M10" s="2" t="n"/>
@@ -1011,17 +1011,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000010</t>
+          <t>TSTO:0000009</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>experience of migration or displacement</t>
+          <t>experience of mass violence</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
+          <t>Experience of violence directed at a group of people</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1038,7 +1038,7 @@
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
         </is>
       </c>
       <c r="M11" s="2" t="n"/>
@@ -1062,17 +1062,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000011</t>
+          <t>TSTO:0000010</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>experience of racial trauma</t>
+          <t>experience of migration or displacement</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Experience of adverse events related to a person's racial or ethnic identity</t>
+          <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
         </is>
       </c>
       <c r="M12" s="2" t="n"/>
@@ -1113,17 +1113,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000012</t>
+          <t>TSTO:0000011</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>experience of violent social environment</t>
+          <t>experience of racial trauma</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
+          <t>Experience of adverse events related to a person's racial or ethnic identity</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
         </is>
       </c>
       <c r="M13" s="2" t="n"/>
@@ -1164,17 +1164,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000013</t>
+          <t>TSTO:0000012</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>experience of war or armed conflict</t>
+          <t>experience of violent social environment</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Experience of armed conflict between states or other military groups</t>
+          <t>Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1191,7 +1191,7 @@
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
+          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
         </is>
       </c>
       <c r="M14" s="2" t="n"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">potentially traumatic experience </t>
+          <t xml:space="preserve">process attribute </t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,6 +1265,7 @@
           <t>The whole of someone's life story including what they do and what happens to them.</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>experienced event; exposure</t>
@@ -1397,7 +1398,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
@@ -1576,6 +1577,49 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1265,7 +1265,6 @@
           <t>The whole of someone's life story including what they do and what happens to them.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>experienced event; exposure</t>
@@ -1398,51 +1397,55 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr"/>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>TSTO:0000021</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">process attribute </t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
         </is>
       </c>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="2" t="n"/>
-      <c r="O20" s="2" t="n"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="n"/>
-      <c r="R20" s="2" t="n"/>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="n"/>
-      <c r="U20" s="2" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="N20" s="3" t="n"/>
+      <c r="O20" s="3" t="n"/>
+      <c r="P20" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q20" s="3" t="n"/>
+      <c r="R20" s="3" t="n"/>
+      <c r="S20" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T20" s="3" t="n"/>
+      <c r="U20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1598,27 +1601,11 @@
           <t>process profile</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Experience of being exposed to violence or threatened violence in the social and physical environment outside the household</t>
+          <t>Potentially traumatic experience that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,220 +1215,223 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TSTO:0000014</t>
+          <t>BFO:0000182</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nature of exposure to potentially traumatic experience</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
+          <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:015161</t>
+          <t>TSTO:0000014</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>personal history</t>
+          <t>nature of exposure to potentially traumatic experience</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>A history that is of a person.</t>
+          <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>The whole of someone's life story including what they do and what happens to them.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>experienced event; exposure</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>External</t>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NKA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050487</t>
+          <t>BFO:0000003</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>personal history part</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A process that is part of a personal history.</t>
+          <t>An entity that unfolds itself in time or it is the instantaneous boundary of such an entity</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>A part of a person's life story.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>trauma exposure</t>
-        </is>
-      </c>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>TSTO:0000001</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>A personal history part that may lead to some traumatic stress response.</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>personal history part</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
-        </is>
-      </c>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="3" t="n"/>
-      <c r="P18" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="3" t="n"/>
-      <c r="S18" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T18" s="3" t="n"/>
-      <c r="U18" s="3" t="n"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BCIO:015161</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>personal history</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A history that is of a person.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>The whole of someone's life story including what they do and what happens to them.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>experienced event; exposure</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TSTO:0000016</t>
+          <t>BCIO:050487</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
+          <t>personal history part</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
+          <t>A process that is part of a personal history.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>A part of a person's life story.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>intentionality</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>NKA</t>
+          <t>trauma exposure</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>TSTO:0000021</t>
+          <t>TSTO:0000001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
+          <t>potentially traumatic experience</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
+          <t>A personal history part that may lead to some traumatic stress response.</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">process attribute </t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
-        </is>
-      </c>
+          <t>personal history part</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
       <c r="I20" s="3" t="n"/>
       <c r="J20" s="3" t="n"/>
       <c r="K20" s="3" t="n"/>
-      <c r="L20" s="3" t="n"/>
+      <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
+        </is>
+      </c>
       <c r="M20" s="3" t="n"/>
       <c r="N20" s="3" t="n"/>
       <c r="O20" s="3" t="n"/>
@@ -1450,17 +1453,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TSTO:0000018</t>
+          <t>TSTO:0000016</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>potentially traumatic experience severity</t>
+          <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
+          <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1470,12 +1473,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
+          <t>intentionality</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1485,51 +1483,70 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>TSTO:0000019</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience time course</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>TSTO:0000021</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">process attribute </t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
+      <c r="N22" s="3" t="n"/>
+      <c r="O22" s="3" t="n"/>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="n"/>
+      <c r="R22" s="3" t="n"/>
+      <c r="S22" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T22" s="3" t="n"/>
+      <c r="U22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TSTO:0000020</t>
+          <t>TSTO:0000018</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>potentially traumatic experience type</t>
+          <t>potentially traumatic experience severity</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
+          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1539,7 +1556,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>event type</t>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1551,61 +1573,168 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BFO:0000015</t>
+          <t>TSTO:0000019</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>potentially traumatic experience time course</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t.</t>
+          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Something that happens over time and involves some kind of change.</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>External</t>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>NKA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>TSTO:0000020</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience type</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>event type</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BFO:0000015</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>An occurrent that has temporal proper parts and for some time t.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Something that happens over time and involves some kind of change.</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>BCIO:043000</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BFO:0000144</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c (axiom label in BFO2 Reference: [093-002])</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -39,12 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ebfad0"/>
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ebfad0"/>
       </patternFill>
     </fill>
   </fills>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,812 +548,782 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>BFO:0000001</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Anything that exists or has existed or will exist.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
           <t>TSTO:0000015</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>experience of accident</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Experience of an occurrence that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people </t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
         </is>
       </c>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="T3" s="3" t="n"/>
+      <c r="U3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000013</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>experience of armed conflict</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Experience of armed conflict between states or other military groups</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="inlineStr">
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="n"/>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="T4" s="3" t="n"/>
+      <c r="U4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000002</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">experience of bereavement </t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Experience of the death of a loved one</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="inlineStr">
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000003</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>experience of disaster</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000004</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>experience of forced labor</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Experience of being forced to provide labor against one's will</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for slavery, human trafficking</t>
         </is>
       </c>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="inlineStr">
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="3" t="n"/>
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000005</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>experience of health event</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Experience of health-related event(s) or treatment</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="inlineStr">
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="3" t="n"/>
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000006</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>experience of incarceration</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Experience of being held against one's will by a government or other state actor</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
         </is>
       </c>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="inlineStr">
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="n"/>
+      <c r="R9" s="3" t="n"/>
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="T9" s="3" t="n"/>
+      <c r="U9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000007</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>experience of interpersonal abuse</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
         </is>
       </c>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="inlineStr">
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="n"/>
+      <c r="R10" s="3" t="n"/>
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="T10" s="3" t="n"/>
+      <c r="U10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000008</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>experience of interpersonal violence outside the household</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Experience of violence directed at an individual by a person outside their household</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
         </is>
       </c>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="inlineStr">
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="n"/>
+      <c r="R11" s="3" t="n"/>
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="T11" s="3" t="n"/>
+      <c r="U11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000009</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>experience of mass violence</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Experience of violence directed at a group of people</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
         </is>
       </c>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="inlineStr">
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="3" t="n"/>
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="T12" s="3" t="n"/>
+      <c r="U12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000010</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>experience of migration or displacement</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="inlineStr">
         <is>
           <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
         </is>
       </c>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="inlineStr">
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="n"/>
+      <c r="R13" s="3" t="n"/>
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="T13" s="3" t="n"/>
+      <c r="U13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000011</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>experience of racial trauma</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Experience of adverse events related to a person's racial or ethnic identity</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
         </is>
       </c>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="inlineStr">
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="3" t="n"/>
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="T14" s="3" t="n"/>
+      <c r="U14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000012</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>experience of violent social environment</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Potentially traumatic experience that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
         </is>
       </c>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="inlineStr">
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="3" t="n"/>
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>BFO:0000182</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="T15" s="3" t="n"/>
+      <c r="U15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TSTO:0000014</t>
+          <t>BFO:0000182</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nature of exposure to potentially traumatic experience</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
+          <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>NKA</t>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>External</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BFO:0000003</t>
+          <t>TSTO:0000014</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>nature of exposure to potentially traumatic experience</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An entity that unfolds itself in time or it is the instantaneous boundary of such an entity</t>
+          <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:015161</t>
+          <t>BFO:0000003</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>personal history</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A history that is of a person.</t>
+          <t>An entity that unfolds itself in time or it is the instantaneous boundary of such an entity</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>The whole of someone's life story including what they do and what happens to them.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>experienced event; exposure</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -1365,225 +1335,225 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>BCIO:015161</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>personal history</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A history that is of a person.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>The whole of someone's life story including what they do and what happens to them.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>experienced event; exposure</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>BCIO:050487</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>A process that is part of a personal history.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>A part of a person's life story.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>trauma exposure</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000001</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>A personal history part that may lead to some traumatic stress response.</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
-      <c r="H20" s="3" t="n"/>
-      <c r="I20" s="3" t="n"/>
-      <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="n"/>
-      <c r="L20" s="3" t="inlineStr">
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="n"/>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
         </is>
       </c>
-      <c r="M20" s="3" t="n"/>
-      <c r="N20" s="3" t="n"/>
-      <c r="O20" s="3" t="n"/>
-      <c r="P20" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q20" s="3" t="n"/>
-      <c r="R20" s="3" t="n"/>
-      <c r="S20" s="3" t="inlineStr">
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="n"/>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T20" s="3" t="n"/>
-      <c r="U20" s="3" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>TSTO:0000016</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>intentionality</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000021</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">process attribute </t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
         </is>
       </c>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
-      <c r="H22" s="3" t="n"/>
-      <c r="I22" s="3" t="n"/>
-      <c r="J22" s="3" t="n"/>
-      <c r="K22" s="3" t="n"/>
-      <c r="L22" s="3" t="n"/>
-      <c r="M22" s="3" t="n"/>
-      <c r="N22" s="3" t="n"/>
-      <c r="O22" s="3" t="n"/>
-      <c r="P22" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q22" s="3" t="n"/>
-      <c r="R22" s="3" t="n"/>
-      <c r="S22" s="3" t="inlineStr">
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="n"/>
+      <c r="R23" s="2" t="n"/>
+      <c r="S23" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T22" s="3" t="n"/>
-      <c r="U22" s="3" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>TSTO:0000018</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience severity</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="T23" s="2" t="n"/>
+      <c r="U23" s="2" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TSTO:0000019</t>
+          <t>TSTO:0000018</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>potentially traumatic experience time course</t>
+          <t>potentially traumatic experience severity</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
+          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1591,9 +1561,14 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
+          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -1605,17 +1580,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TSTO:0000020</t>
+          <t>TSTO:0000019</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>potentially traumatic experience type</t>
+          <t>potentially traumatic experience time course</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
+          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1623,9 +1598,9 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>event type</t>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -1637,54 +1612,59 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BFO:0000015</t>
+          <t>TSTO:0000020</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>potentially traumatic experience type</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t.</t>
+          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Something that happens over time and involves some kind of change.</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>External</t>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>event type</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>NKA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BFO:0000015</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A process profile that is an attribute of a process.</t>
+          <t>An occurrent that has temporal proper parts and for some time t.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Something that happens over time and involves some kind of change.</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1696,45 +1676,56 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>BFO:0000144</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>b is a process_profile =Def. there is some process c such that b process_profile_of c (axiom label in BFO2 Reference: [093-002])</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -561,28 +561,28 @@
           <t>Anything that exists or has existed or will exist.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Potentially traumatic experience that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
+          <t>A potentially traumatic experience that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -1427,10 +1427,22 @@
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E21" s="2" t="n"/>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Something that a person has experienced that may lead in some cases some kind of traumatic stress response.</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>PTEO</t>
+        </is>
+      </c>
       <c r="I21" s="2" t="n"/>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="2" t="n"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -39,12 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ebfad0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ebfad0"/>
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -546,710 +546,694 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>BFO:0000001</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Anything that exists or has existed or will exist.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-      <c r="K2" s="2" t="n"/>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n"/>
-      <c r="N2" s="2" t="n"/>
-      <c r="O2" s="2" t="n"/>
-      <c r="P2" s="2" t="n"/>
-      <c r="Q2" s="2" t="n"/>
-      <c r="R2" s="2" t="n"/>
-      <c r="S2" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000015</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>experience of accident</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Experience of an occurrence that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people </t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
         </is>
       </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="inlineStr">
         <is>
           <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
         </is>
       </c>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T3" s="3" t="n"/>
-      <c r="U3" s="3" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000013</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>experience of armed conflict</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Experience of armed conflict between states or other military groups</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
         </is>
       </c>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="3" t="n"/>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T4" s="3" t="n"/>
-      <c r="U4" s="3" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000002</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">experience of bereavement </t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Experience of the death of a loved one</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Potentially traumatic experience that is the death of a loved one.</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
         </is>
       </c>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="n"/>
-      <c r="R5" s="3" t="n"/>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="n"/>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T5" s="3" t="n"/>
-      <c r="U5" s="3" t="n"/>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000003</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>experience of disaster</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
         </is>
       </c>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="n"/>
-      <c r="R6" s="3" t="n"/>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="n"/>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T6" s="3" t="n"/>
-      <c r="U6" s="3" t="n"/>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="2" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000004</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>experience of forced labor</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Experience of being forced to provide labor against one's will</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="J7" s="3" t="n"/>
-      <c r="K7" s="3" t="n"/>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>includes sub-classes for slavery, human trafficking</t>
         </is>
       </c>
-      <c r="M7" s="3" t="n"/>
-      <c r="N7" s="3" t="n"/>
-      <c r="O7" s="3" t="n"/>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="n"/>
-      <c r="R7" s="3" t="n"/>
-      <c r="S7" s="3" t="inlineStr">
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="n"/>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T7" s="3" t="n"/>
-      <c r="U7" s="3" t="n"/>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="2" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000005</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>experience of health event</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>Experience of health-related event(s) or treatment</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
         </is>
       </c>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
-      <c r="O8" s="3" t="n"/>
-      <c r="P8" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="n"/>
-      <c r="R8" s="3" t="n"/>
-      <c r="S8" s="3" t="inlineStr">
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="n"/>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T8" s="3" t="n"/>
-      <c r="U8" s="3" t="n"/>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000006</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>experience of incarceration</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Experience of being held against one's will by a government or other state actor</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
-      <c r="I9" s="3" t="n"/>
-      <c r="J9" s="3" t="n"/>
-      <c r="K9" s="3" t="n"/>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
         </is>
       </c>
-      <c r="M9" s="3" t="n"/>
-      <c r="N9" s="3" t="n"/>
-      <c r="O9" s="3" t="n"/>
-      <c r="P9" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q9" s="3" t="n"/>
-      <c r="R9" s="3" t="n"/>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="n"/>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T9" s="3" t="n"/>
-      <c r="U9" s="3" t="n"/>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="2" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000007</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>experience of interpersonal abuse</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="inlineStr">
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
         </is>
       </c>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q10" s="3" t="n"/>
-      <c r="R10" s="3" t="n"/>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="n"/>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T10" s="3" t="n"/>
-      <c r="U10" s="3" t="n"/>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="2" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000008</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>experience of interpersonal violence outside the household</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>Experience of violence directed at an individual by a person outside their household</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
-      <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
-      <c r="L11" s="3" t="inlineStr">
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
         </is>
       </c>
-      <c r="M11" s="3" t="n"/>
-      <c r="N11" s="3" t="n"/>
-      <c r="O11" s="3" t="n"/>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q11" s="3" t="n"/>
-      <c r="R11" s="3" t="n"/>
-      <c r="S11" s="3" t="inlineStr">
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="n"/>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T11" s="3" t="n"/>
-      <c r="U11" s="3" t="n"/>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000009</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>experience of mass violence</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Experience of violence directed at a group of people</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
-      <c r="I12" s="3" t="n"/>
-      <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
-      <c r="L12" s="3" t="inlineStr">
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
         </is>
       </c>
-      <c r="M12" s="3" t="n"/>
-      <c r="N12" s="3" t="n"/>
-      <c r="O12" s="3" t="n"/>
-      <c r="P12" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q12" s="3" t="n"/>
-      <c r="R12" s="3" t="n"/>
-      <c r="S12" s="3" t="inlineStr">
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="n"/>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T12" s="3" t="n"/>
-      <c r="U12" s="3" t="n"/>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="2" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000010</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>experience of migration or displacement</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
-      <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="n"/>
-      <c r="L13" s="3" t="inlineStr">
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
         </is>
       </c>
-      <c r="M13" s="3" t="n"/>
-      <c r="N13" s="3" t="n"/>
-      <c r="O13" s="3" t="n"/>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="n"/>
-      <c r="R13" s="3" t="n"/>
-      <c r="S13" s="3" t="inlineStr">
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T13" s="3" t="n"/>
-      <c r="U13" s="3" t="n"/>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="2" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000011</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>experience of racial trauma</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>Experience of adverse events related to a person's racial or ethnic identity</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
-      <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="n"/>
-      <c r="L14" s="3" t="inlineStr">
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
         </is>
       </c>
-      <c r="M14" s="3" t="n"/>
-      <c r="N14" s="3" t="n"/>
-      <c r="O14" s="3" t="n"/>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="n"/>
-      <c r="R14" s="3" t="n"/>
-      <c r="S14" s="3" t="inlineStr">
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="n"/>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T14" s="3" t="n"/>
-      <c r="U14" s="3" t="n"/>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="2" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000012</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>experience of violent social environment</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>A potentially traumatic experience that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
         </is>
       </c>
-      <c r="D15" s="3" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="inlineStr">
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
         </is>
       </c>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="3" t="n"/>
-      <c r="P15" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q15" s="3" t="n"/>
-      <c r="R15" s="3" t="n"/>
-      <c r="S15" s="3" t="inlineStr">
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="n"/>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T15" s="3" t="n"/>
-      <c r="U15" s="3" t="n"/>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1326,6 +1310,7 @@
           <t>entity</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>External</t>
@@ -1353,16 +1338,8 @@
           <t>history</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>The whole of someone's life story including what they do and what happens to them.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>experienced event; exposure</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>External</t>
@@ -1390,16 +1367,8 @@
           <t>process</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>A part of a person's life story.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>trauma exposure</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>External</t>
@@ -1407,67 +1376,67 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000001</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>A personal history part that may lead to some traumatic stress response.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>Something that a person has experienced that may lead in some cases some kind of traumatic stress response.</t>
         </is>
       </c>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>PTEO</t>
         </is>
       </c>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="inlineStr">
         <is>
           <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
         </is>
       </c>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="2" t="n"/>
-      <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="inlineStr">
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="n"/>
+      <c r="O21" s="3" t="n"/>
+      <c r="P21" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q21" s="3" t="n"/>
+      <c r="R21" s="3" t="n"/>
+      <c r="S21" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T21" s="2" t="n"/>
-      <c r="U21" s="2" t="n"/>
+      <c r="T21" s="3" t="n"/>
+      <c r="U21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1502,55 +1471,55 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000021</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">process attribute </t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="2" t="n"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="n"/>
-      <c r="S23" s="2" t="inlineStr">
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
+      <c r="N23" s="3" t="n"/>
+      <c r="O23" s="3" t="n"/>
+      <c r="P23" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q23" s="3" t="n"/>
+      <c r="R23" s="3" t="n"/>
+      <c r="S23" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T23" s="2" t="n"/>
-      <c r="U23" s="2" t="n"/>
+      <c r="T23" s="3" t="n"/>
+      <c r="U23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1674,11 +1643,7 @@
           <t>occurrent</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Something that happens over time and involves some kind of change.</t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>External</t>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,148 +546,107 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr"/>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Relationship with PTE target</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>A potentially traumatic experience attribute that is kinship connection of the person with whoever directly experiences the event.</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr"/>
+      <c r="I2" s="2" t="inlineStr"/>
+      <c r="J2" s="2" t="inlineStr"/>
+      <c r="K2" s="2" t="inlineStr"/>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr"/>
+      <c r="O2" s="2" t="inlineStr"/>
+      <c r="P2" s="2" t="inlineStr"/>
+      <c r="Q2" s="2" t="inlineStr"/>
+      <c r="R2" s="2" t="inlineStr"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TSTO:0000014</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>directness of potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A potentially traumatic experience attribute that is whether the PTE was physically experienced, observed or communicated to the person.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>BFO:0000001</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>entity</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Anything that exists or has existed or will exist.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>TSTO:0000015</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>experience of accident</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experience of an occurrence that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people </t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>TSTO:0000013</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>experience of armed conflict</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Experience of armed conflict between states or other military groups</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000002</t>
+          <t>TSTO:0000015</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">experience of bereavement </t>
+          <t>experience of accident</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Potentially traumatic experience that is the death of a loved one.</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,8 +654,12 @@
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="n"/>
       <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
@@ -704,7 +667,7 @@
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
         </is>
       </c>
       <c r="M5" s="2" t="n"/>
@@ -728,17 +691,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000003</t>
+          <t>TSTO:0000013</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>experience of disaster</t>
+          <t>experience of armed conflict</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
+          <t>Experience of armed conflict between states or other military groups.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -746,7 +709,7 @@
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n"/>
+      <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
@@ -755,7 +718,7 @@
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
         </is>
       </c>
       <c r="M6" s="2" t="n"/>
@@ -779,17 +742,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000004</t>
+          <t>TSTO:0000002</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>experience of forced labor</t>
+          <t xml:space="preserve">experience of bereavement </t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Experience of being forced to provide labor against one's will</t>
+          <t>Potentially traumatic experience that is the death of a loved one.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -806,7 +769,7 @@
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for slavery, human trafficking</t>
+          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
         </is>
       </c>
       <c r="M7" s="2" t="n"/>
@@ -830,17 +793,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000005</t>
+          <t>TSTO:0000003</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>experience of health event</t>
+          <t>experience of disaster</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Experience of health-related event(s) or treatment</t>
+          <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -857,7 +820,7 @@
       <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
         </is>
       </c>
       <c r="M8" s="2" t="n"/>
@@ -881,17 +844,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000006</t>
+          <t>TSTO:0000004</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>experience of incarceration</t>
+          <t>experience of forced labor</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Experience of being held against one's will by a government or other state actor</t>
+          <t>Experience of being forced to provide labor against one's will</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -908,7 +871,7 @@
       <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
+          <t>includes sub-classes for slavery, human trafficking</t>
         </is>
       </c>
       <c r="M9" s="2" t="n"/>
@@ -932,17 +895,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000007</t>
+          <t>TSTO:0000005</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>experience of interpersonal abuse</t>
+          <t>experience of health event</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
+          <t>Experience of health-related event(s) or treatment</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -959,7 +922,7 @@
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
         </is>
       </c>
       <c r="M10" s="2" t="n"/>
@@ -983,17 +946,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000008</t>
+          <t>TSTO:0000006</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>experience of interpersonal violence outside the household</t>
+          <t>experience of incarceration</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Experience of violence directed at an individual by a person outside their household</t>
+          <t>Experience of being held against one's will by a government or other state actor</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1010,7 +973,7 @@
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
         </is>
       </c>
       <c r="M11" s="2" t="n"/>
@@ -1034,17 +997,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000009</t>
+          <t>TSTO:0000007</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>experience of mass violence</t>
+          <t>experience of interpersonal abuse</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Experience of violence directed at a group of people</t>
+          <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1061,7 +1024,7 @@
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
         </is>
       </c>
       <c r="M12" s="2" t="n"/>
@@ -1085,17 +1048,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000010</t>
+          <t>TSTO:0000008</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>experience of migration or displacement</t>
+          <t>experience of interpersonal violence outside the household</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
+          <t>Experience of violence directed at an individual by a person outside their household</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1112,7 +1075,7 @@
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
         </is>
       </c>
       <c r="M13" s="2" t="n"/>
@@ -1136,17 +1099,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000011</t>
+          <t>TSTO:0000009</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>experience of racial trauma</t>
+          <t>experience of mass violence</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Experience of adverse events related to a person's racial or ethnic identity</t>
+          <t>Experience of violence directed at a group of people</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1163,7 +1126,7 @@
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
         </is>
       </c>
       <c r="M14" s="2" t="n"/>
@@ -1187,17 +1150,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>TSTO:0000012</t>
+          <t>TSTO:0000010</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>experience of violent social environment</t>
+          <t>experience of migration or displacement</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A potentially traumatic experience that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
+          <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1214,7 +1177,7 @@
       <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
         </is>
       </c>
       <c r="M15" s="2" t="n"/>
@@ -1236,81 +1199,128 @@
       <c r="U15" s="2" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>BFO:0000182</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>TSTO:0000011</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>experience of racial trauma</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Experience of adverse events related to a person's racial or ethnic identity</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="n"/>
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="n"/>
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="2" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TSTO:0000014</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>nature of exposure to potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is the nature of a person's exposure (ie, direct vs indirect)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>TSTO:0000012</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>experience of violent social environment</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>A potentially traumatic experience that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="n"/>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="2" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BFO:0000003</t>
+          <t>BFO:0000182</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>history</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>An entity that unfolds itself in time or it is the instantaneous boundary of such an entity</t>
+          <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>process</t>
+        </is>
+      </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>External</t>
@@ -1320,26 +1330,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:015161</t>
+          <t>BFO:0000003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>personal history</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A history that is of a person.</t>
+          <t>An entity that unfolds itself in time or it is the instantaneous boundary of such an entity</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>entity</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>External</t>
@@ -1349,229 +1357,217 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>BCIO:015161</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>personal history</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A history that is of a person.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>BCIO:050487</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A process that is part of a personal history.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000001</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>A personal history part that may lead to some traumatic stress response.</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>Something that a person has experienced that may lead in some cases some kind of traumatic stress response.</t>
         </is>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="H22" s="3" t="inlineStr">
         <is>
           <t>PTEO</t>
         </is>
       </c>
-      <c r="I21" s="3" t="n"/>
-      <c r="J21" s="3" t="n"/>
-      <c r="K21" s="3" t="n"/>
-      <c r="L21" s="3" t="inlineStr">
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="inlineStr">
         <is>
           <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
         </is>
       </c>
-      <c r="M21" s="3" t="n"/>
-      <c r="N21" s="3" t="n"/>
-      <c r="O21" s="3" t="n"/>
-      <c r="P21" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q21" s="3" t="n"/>
-      <c r="R21" s="3" t="n"/>
-      <c r="S21" s="3" t="inlineStr">
+      <c r="M22" s="3" t="n"/>
+      <c r="N22" s="3" t="n"/>
+      <c r="O22" s="3" t="n"/>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q22" s="3" t="n"/>
+      <c r="R22" s="3" t="n"/>
+      <c r="S22" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T21" s="3" t="n"/>
-      <c r="U21" s="3" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="T22" s="3" t="n"/>
+      <c r="U22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>TSTO:0000016</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>intentionality</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000021</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">process attribute </t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
         </is>
       </c>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
-      <c r="H23" s="3" t="n"/>
-      <c r="I23" s="3" t="n"/>
-      <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="n"/>
-      <c r="L23" s="3" t="n"/>
-      <c r="M23" s="3" t="n"/>
-      <c r="N23" s="3" t="n"/>
-      <c r="O23" s="3" t="n"/>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q23" s="3" t="n"/>
-      <c r="R23" s="3" t="n"/>
-      <c r="S23" s="3" t="inlineStr">
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="3" t="n"/>
+      <c r="M24" s="3" t="n"/>
+      <c r="N24" s="3" t="n"/>
+      <c r="O24" s="3" t="n"/>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q24" s="3" t="n"/>
+      <c r="R24" s="3" t="n"/>
+      <c r="S24" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T23" s="3" t="n"/>
-      <c r="U23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>TSTO:0000018</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience severity</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="T24" s="3" t="n"/>
+      <c r="U24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TSTO:0000019</t>
+          <t>TSTO:0000018</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>potentially traumatic experience time course</t>
+          <t>potentially traumatic experience severity</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
+          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1579,9 +1575,14 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
+          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -1593,17 +1594,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TSTO:0000020</t>
+          <t>TSTO:0000019</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>potentially traumatic experience type</t>
+          <t>potentially traumatic experience time course</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
+          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1611,9 +1612,9 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>event type</t>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -1625,50 +1626,54 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BFO:0000015</t>
+          <t>TSTO:0000020</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>potentially traumatic experience type</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>An occurrent that has temporal proper parts and for some time t.</t>
+          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>External</t>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>event type</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>NKA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BFO:0000015</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A process profile that is an attribute of a process.</t>
+          <t>An occurrent that has temporal proper parts and for some time t.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -1680,25 +1685,52 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>BFO:0000144</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>b is a process_profile =Def. there is some process c such that b process_profile_of c (axiom label in BFO2 Reference: [093-002])</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>External</t>
         </is>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -39,12 +39,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ebfad0"/>
+        <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="00ebfad0"/>
       </patternFill>
     </fill>
   </fills>
@@ -546,7 +546,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TSTO:0000022</t>
+        </is>
+      </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Relationship with PTE target</t>
@@ -562,27 +566,27 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr"/>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="2" t="inlineStr"/>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
-      <c r="N2" s="2" t="inlineStr"/>
-      <c r="O2" s="2" t="inlineStr"/>
-      <c r="P2" s="2" t="inlineStr"/>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="2" t="n"/>
+      <c r="R2" s="2" t="n"/>
       <c r="S2" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -634,671 +638,671 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000015</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>experience of accident</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>A &lt;potentially traumatic experience&gt; that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="n"/>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="inlineStr">
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T5" s="2" t="n"/>
-      <c r="U5" s="2" t="n"/>
+      <c r="T5" s="3" t="n"/>
+      <c r="U5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000013</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>experience of armed conflict</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Experience of armed conflict between states or other military groups.</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
         </is>
       </c>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="inlineStr">
+      <c r="M6" s="3" t="n"/>
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
+      <c r="T6" s="3" t="n"/>
+      <c r="U6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000002</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">experience of bereavement </t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Potentially traumatic experience that is the death of a loved one.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="inlineStr">
         <is>
           <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
-      <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="n"/>
-      <c r="R7" s="2" t="n"/>
-      <c r="S7" s="2" t="inlineStr">
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="3" t="n"/>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="3" t="n"/>
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T7" s="2" t="n"/>
-      <c r="U7" s="2" t="n"/>
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000003</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>experience of disaster</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
         </is>
       </c>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
-      <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="n"/>
-      <c r="R8" s="2" t="n"/>
-      <c r="S8" s="2" t="inlineStr">
+      <c r="M8" s="3" t="n"/>
+      <c r="N8" s="3" t="n"/>
+      <c r="O8" s="3" t="n"/>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="3" t="n"/>
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T8" s="2" t="n"/>
-      <c r="U8" s="2" t="n"/>
+      <c r="T8" s="3" t="n"/>
+      <c r="U8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000004</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>experience of forced labor</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Experience of being forced to provide labor against one's will</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for slavery, human trafficking</t>
         </is>
       </c>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
-      <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="n"/>
-      <c r="R9" s="2" t="n"/>
-      <c r="S9" s="2" t="inlineStr">
+      <c r="M9" s="3" t="n"/>
+      <c r="N9" s="3" t="n"/>
+      <c r="O9" s="3" t="n"/>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="n"/>
+      <c r="R9" s="3" t="n"/>
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T9" s="2" t="n"/>
-      <c r="U9" s="2" t="n"/>
+      <c r="T9" s="3" t="n"/>
+      <c r="U9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000005</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>experience of health event</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Experience of health-related event(s) or treatment</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
         </is>
       </c>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
-      <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="n"/>
-      <c r="R10" s="2" t="n"/>
-      <c r="S10" s="2" t="inlineStr">
+      <c r="M10" s="3" t="n"/>
+      <c r="N10" s="3" t="n"/>
+      <c r="O10" s="3" t="n"/>
+      <c r="P10" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="n"/>
+      <c r="R10" s="3" t="n"/>
+      <c r="S10" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T10" s="2" t="n"/>
-      <c r="U10" s="2" t="n"/>
+      <c r="T10" s="3" t="n"/>
+      <c r="U10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000006</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>experience of incarceration</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Experience of being held against one's will by a government or other state actor</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="inlineStr">
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
         </is>
       </c>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
-      <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="n"/>
-      <c r="R11" s="2" t="n"/>
-      <c r="S11" s="2" t="inlineStr">
+      <c r="M11" s="3" t="n"/>
+      <c r="N11" s="3" t="n"/>
+      <c r="O11" s="3" t="n"/>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q11" s="3" t="n"/>
+      <c r="R11" s="3" t="n"/>
+      <c r="S11" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T11" s="2" t="n"/>
-      <c r="U11" s="2" t="n"/>
+      <c r="T11" s="3" t="n"/>
+      <c r="U11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000007</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>experience of interpersonal abuse</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
         </is>
       </c>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
-      <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="n"/>
-      <c r="R12" s="2" t="n"/>
-      <c r="S12" s="2" t="inlineStr">
+      <c r="M12" s="3" t="n"/>
+      <c r="N12" s="3" t="n"/>
+      <c r="O12" s="3" t="n"/>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="3" t="n"/>
+      <c r="S12" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T12" s="2" t="n"/>
-      <c r="U12" s="2" t="n"/>
+      <c r="T12" s="3" t="n"/>
+      <c r="U12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000008</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>experience of interpersonal violence outside the household</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>Experience of violence directed at an individual by a person outside their household</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
         </is>
       </c>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
-      <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="n"/>
-      <c r="R13" s="2" t="n"/>
-      <c r="S13" s="2" t="inlineStr">
+      <c r="M13" s="3" t="n"/>
+      <c r="N13" s="3" t="n"/>
+      <c r="O13" s="3" t="n"/>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="n"/>
+      <c r="R13" s="3" t="n"/>
+      <c r="S13" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T13" s="2" t="n"/>
-      <c r="U13" s="2" t="n"/>
+      <c r="T13" s="3" t="n"/>
+      <c r="U13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000009</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>experience of mass violence</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>Experience of violence directed at a group of people</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
         </is>
       </c>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
-      <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="n"/>
-      <c r="R14" s="2" t="n"/>
-      <c r="S14" s="2" t="inlineStr">
+      <c r="M14" s="3" t="n"/>
+      <c r="N14" s="3" t="n"/>
+      <c r="O14" s="3" t="n"/>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="3" t="n"/>
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T14" s="2" t="n"/>
-      <c r="U14" s="2" t="n"/>
+      <c r="T14" s="3" t="n"/>
+      <c r="U14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000010</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>experience of migration or displacement</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="inlineStr">
         <is>
           <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
         </is>
       </c>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
-      <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="n"/>
-      <c r="R15" s="2" t="n"/>
-      <c r="S15" s="2" t="inlineStr">
+      <c r="M15" s="3" t="n"/>
+      <c r="N15" s="3" t="n"/>
+      <c r="O15" s="3" t="n"/>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="3" t="n"/>
+      <c r="S15" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T15" s="2" t="n"/>
-      <c r="U15" s="2" t="n"/>
+      <c r="T15" s="3" t="n"/>
+      <c r="U15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000011</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>experience of racial trauma</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>Experience of adverse events related to a person's racial or ethnic identity</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
         </is>
       </c>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="2" t="n"/>
-      <c r="O16" s="2" t="n"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="n"/>
-      <c r="R16" s="2" t="n"/>
-      <c r="S16" s="2" t="inlineStr">
+      <c r="M16" s="3" t="n"/>
+      <c r="N16" s="3" t="n"/>
+      <c r="O16" s="3" t="n"/>
+      <c r="P16" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="n"/>
+      <c r="R16" s="3" t="n"/>
+      <c r="S16" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T16" s="2" t="n"/>
-      <c r="U16" s="2" t="n"/>
+      <c r="T16" s="3" t="n"/>
+      <c r="U16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000012</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>experience of violent social environment</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>A potentially traumatic experience that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
         </is>
       </c>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="2" t="n"/>
-      <c r="O17" s="2" t="n"/>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="n"/>
-      <c r="R17" s="2" t="n"/>
-      <c r="S17" s="2" t="inlineStr">
+      <c r="M17" s="3" t="n"/>
+      <c r="N17" s="3" t="n"/>
+      <c r="O17" s="3" t="n"/>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="3" t="n"/>
+      <c r="S17" s="3" t="inlineStr">
         <is>
           <t>Pre-proposed</t>
         </is>
       </c>
-      <c r="T17" s="2" t="n"/>
-      <c r="U17" s="2" t="n"/>
+      <c r="T17" s="3" t="n"/>
+      <c r="U17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1409,67 +1413,67 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000001</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>A personal history part that may lead to some traumatic stress response.</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>Something that a person has experienced that may lead in some cases some kind of traumatic stress response.</t>
         </is>
       </c>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H22" s="3" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>PTEO</t>
         </is>
       </c>
-      <c r="I22" s="3" t="n"/>
-      <c r="J22" s="3" t="n"/>
-      <c r="K22" s="3" t="n"/>
-      <c r="L22" s="3" t="inlineStr">
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="inlineStr">
         <is>
           <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
         </is>
       </c>
-      <c r="M22" s="3" t="n"/>
-      <c r="N22" s="3" t="n"/>
-      <c r="O22" s="3" t="n"/>
-      <c r="P22" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q22" s="3" t="n"/>
-      <c r="R22" s="3" t="n"/>
-      <c r="S22" s="3" t="inlineStr">
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="n"/>
+      <c r="R22" s="2" t="n"/>
+      <c r="S22" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T22" s="3" t="n"/>
-      <c r="U22" s="3" t="n"/>
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1504,55 +1508,55 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000021</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
         </is>
       </c>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
-      <c r="H24" s="3" t="n"/>
-      <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="n"/>
-      <c r="L24" s="3" t="n"/>
-      <c r="M24" s="3" t="n"/>
-      <c r="N24" s="3" t="n"/>
-      <c r="O24" s="3" t="n"/>
-      <c r="P24" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="Q24" s="3" t="n"/>
-      <c r="R24" s="3" t="n"/>
-      <c r="S24" s="3" t="inlineStr">
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="n"/>
+      <c r="R24" s="2" t="n"/>
+      <c r="S24" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T24" s="3" t="n"/>
-      <c r="U24" s="3" t="n"/>
+      <c r="T24" s="2" t="n"/>
+      <c r="U24" s="2" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\Potentially-Traumatic-Experiences-Ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827FF8E6-2B91-4817-8C9C-68104F1F36C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3954EE51-280C-40D9-AA52-AD7550FD5EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>Curator</t>
-  </si>
-  <si>
-    <t>REL 'tsto:experienceOf'</t>
-  </si>
-  <si>
-    <t>REL 'owl:equivalentClass'</t>
   </si>
   <si>
     <t>Curation status</t>
@@ -785,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +790,7 @@
     <col min="1" max="16384" width="51.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,25 +848,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -886,46 +874,44 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="R2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -934,34 +920,32 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-    </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -971,34 +955,32 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-    </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1008,34 +990,32 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-    </row>
-    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1045,34 +1025,32 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-    </row>
-    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1082,34 +1060,32 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-    </row>
-    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1119,34 +1095,32 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1156,34 +1130,32 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1193,34 +1165,32 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R11" s="4"/>
-      <c r="S11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1230,34 +1200,32 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R12" s="4"/>
-      <c r="S12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1267,34 +1235,32 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1304,34 +1270,32 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R14" s="4"/>
-      <c r="S14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1341,34 +1305,32 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1378,168 +1340,164 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="Q20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="R21" s="3"/>
-      <c r="S21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="P22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="P22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1552,128 +1510,126 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" s="2" t="s">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="P25" s="2" t="s">
+    <row r="29" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\Potentially-Traumatic-Experiences-Ontology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3954EE51-280C-40D9-AA52-AD7550FD5EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD15936-5D7A-4186-ACA0-E6D4001EB32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>TSTO:0000022</t>
   </si>
   <si>
-    <t>Relationship with PTE target</t>
-  </si>
-  <si>
     <t>potentially traumatic experience attribute</t>
   </si>
   <si>
@@ -412,7 +409,13 @@
     <t>b is a process_profile =Def. there is some process c such that b process_profile_of c (axiom label in BFO2 Reference: [093-002])</t>
   </si>
   <si>
-    <t>A potentially traumatic experience attribute that is the kinship connection of the person with whoever directly experiences the event.</t>
+    <t>kinship relationship with potentially traumatic experience target</t>
+  </si>
+  <si>
+    <t>A personal attribute that is the kinship connection of the person a person who has has a specified potentially traumatic experience.</t>
+  </si>
+  <si>
+    <t>personal attribute</t>
   </si>
 </sst>
 </file>
@@ -781,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,13 +857,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -875,43 +878,43 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -920,32 +923,32 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -955,32 +958,32 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -990,32 +993,32 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1025,32 +1028,32 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1060,32 +1063,32 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1095,32 +1098,32 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1130,32 +1133,32 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1165,32 +1168,32 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
     <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1200,32 +1203,32 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1235,32 +1238,32 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1270,32 +1273,32 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1305,32 +1308,32 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1340,164 +1343,164 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="Q17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="P22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1510,126 +1513,126 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
     <row r="24" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="P24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="P25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="P26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="Q28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -688,7 +694,7 @@
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
+      <c r="H5" s="2" t="inlineStr"/>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
@@ -734,7 +740,7 @@
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="n"/>
       <c r="H6" s="2" t="n"/>
@@ -1319,7 +1325,6 @@
           <t>history</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t>External</t>
@@ -1347,8 +1352,6 @@
           <t>process</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t>External</t>
@@ -1547,7 +1550,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is its chronicity</t>
+          <t>An attribute of a potentially traumatic experience that is its chronicity.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1567,36 +1570,53 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>TSTO:0000020</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>potentially traumatic experience type</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person.</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>event type</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="G26" s="4" t="n"/>
+      <c r="H26" s="4" t="n"/>
+      <c r="I26" s="4" t="n"/>
+      <c r="J26" s="4" t="n"/>
+      <c r="K26" s="4" t="n"/>
+      <c r="L26" s="4" t="n"/>
+      <c r="M26" s="4" t="n"/>
+      <c r="N26" s="4" t="n"/>
+      <c r="O26" s="4" t="n"/>
+      <c r="P26" s="4" t="inlineStr">
+        <is>
+          <t>NKA; RW</t>
+        </is>
+      </c>
+      <c r="Q26" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="R26" s="4" t="n"/>
+      <c r="S26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -467,29 +467,29 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Logical definition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BFO Entity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Sub-ontology</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Synonyms</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>BFO Entity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Logical definition</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Entity URL</t>
@@ -502,32 +502,32 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Curation note</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Curation note</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Fuzzy class</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Why fuzzy</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Fuzzy class</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Curator</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A potentially traumatic experience attribute that is whether the PTE was physically experienced, observed or communicated to the person.</t>
+          <t>A &lt;potentially traumatic experience attribute&gt; that is whether the event(s) experienced were physically experienced, witnessed, or communicated to the person.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -562,7 +562,13 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The directness of potentially traumatic experiences ranges from direct physical impact of an event, to personally witnessing an event, to hearing or learning about an event that happened to other persons (loved ones or others). </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -589,33 +595,33 @@
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
+        </is>
+      </c>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
-        </is>
-      </c>
+      <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
           <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
         </is>
       </c>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R3" s="2" t="n"/>
@@ -634,7 +640,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Experience of armed conflict between states or other military groups.</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves armed conflict between states or other military groups.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -651,20 +657,20 @@
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
         </is>
       </c>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P4" s="2" t="n"/>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R4" s="2" t="n"/>
@@ -683,7 +689,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Potentially traumatic experience that is the death of a loved one.</t>
+          <t>A &lt;potentially traumatic experience&gt; that is the death of a loved one.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -694,26 +700,26 @@
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="n"/>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
         </is>
       </c>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P5" s="2" t="n"/>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R5" s="2" t="n"/>
@@ -732,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Experience of a sudden-onset occurrence created by natural or technological forces that impacts a group of people defined by place or region</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves a sudden-onset occurrence created by natural or technological forces impacting a group of people defined by place or region</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -749,20 +755,20 @@
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
         </is>
       </c>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P6" s="2" t="n"/>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R6" s="2" t="n"/>
@@ -781,7 +787,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Experience of being forced to provide labor against one's will</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves being forced to provide labor against one's will</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -798,20 +804,20 @@
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>includes sub-classes for slavery, human trafficking</t>
         </is>
       </c>
-      <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P7" s="2" t="n"/>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R7" s="2" t="n"/>
@@ -847,20 +853,20 @@
       <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
         </is>
       </c>
-      <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R8" s="2" t="n"/>
@@ -879,7 +885,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Experience of being held against one's will by a government or other state actor</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves being held against one's will by a government or other state actor</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -896,20 +902,20 @@
       <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
         </is>
       </c>
-      <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P9" s="2" t="n"/>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R9" s="2" t="n"/>
@@ -928,7 +934,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Experience of abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -945,20 +951,20 @@
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
         </is>
       </c>
-      <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P10" s="2" t="n"/>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R10" s="2" t="n"/>
@@ -977,7 +983,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Experience of violence directed at an individual by a person outside their household</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves violence directed at an individual by a person outside their household</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -994,20 +1000,20 @@
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
         </is>
       </c>
-      <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P11" s="2" t="n"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R11" s="2" t="n"/>
@@ -1026,7 +1032,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Experience of violence directed at a group of people</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves violence directed at a group of people</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1043,20 +1049,20 @@
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
         </is>
       </c>
-      <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P12" s="2" t="n"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R12" s="2" t="n"/>
@@ -1075,7 +1081,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Experience of sudden or forced displacement from one's home or home area because of physical or political danger</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves  sudden or forced displacement from one's home or home area because of physical or political danger</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1092,20 +1098,20 @@
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
         </is>
       </c>
-      <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P13" s="2" t="n"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R13" s="2" t="n"/>
@@ -1124,7 +1130,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Experience of adverse events related to a person's racial or ethnic identity</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves adverse events related to a person's racial or ethnic identity</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1141,20 +1147,20 @@
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
         </is>
       </c>
-      <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R14" s="2" t="n"/>
@@ -1190,20 +1196,20 @@
       <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="inlineStr">
         <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
         </is>
       </c>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="n"/>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>Pre-proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R15" s="2" t="n"/>
@@ -1230,7 +1236,7 @@
           <t>process</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1264,16 +1270,16 @@
       <c r="I17" s="2" t="n"/>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="M17" s="2" t="n"/>
       <c r="N17" s="2" t="n"/>
       <c r="O17" s="2" t="n"/>
       <c r="P17" s="2" t="n"/>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="Q17" s="2" t="n"/>
       <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="n"/>
     </row>
@@ -1298,7 +1304,7 @@
           <t>entity</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1325,7 +1331,7 @@
           <t>history</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1352,7 +1358,7 @@
           <t>process</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1381,7 +1387,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>PTEO</t>
+          <t>Something that a person has experienced that may lead in some cases to some kind of traumatic stress response.</t>
         </is>
       </c>
       <c r="F21" s="3" t="n"/>
@@ -1392,7 +1398,7 @@
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>Something that a person has experienced that may lead in some cases some kind of traumatic stress response.</t>
+          <t>PTEO</t>
         </is>
       </c>
       <c r="I21" s="3" t="n"/>
@@ -1400,20 +1406,20 @@
       <c r="K21" s="3" t="n"/>
       <c r="L21" s="3" t="inlineStr">
         <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="inlineStr">
+        <is>
           <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
         </is>
       </c>
-      <c r="M21" s="3" t="n"/>
-      <c r="N21" s="3" t="n"/>
       <c r="O21" s="3" t="n"/>
-      <c r="P21" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P21" s="3" t="n"/>
       <c r="Q21" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R21" s="3" t="n"/>
@@ -1432,7 +1438,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the degree of human agency involved in causing the event(s) experienced</t>
+          <t>A &lt;potentially traumatic experience attribute&gt; that is the degree of human agency involved in causing the event(s) experienced</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1440,12 +1446,17 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>The degree to which the causal process involved in the the event(s) which are/were experienced involved human agency / intention to harm.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>intentionality</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1472,29 +1483,29 @@
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Attributes of PTEs include their time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
+        </is>
+      </c>
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>Attributes of PTEs include their type, time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
-        </is>
-      </c>
+      <c r="H23" s="3" t="n"/>
       <c r="I23" s="3" t="n"/>
       <c r="J23" s="3" t="n"/>
       <c r="K23" s="3" t="n"/>
-      <c r="L23" s="3" t="n"/>
+      <c r="L23" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="M23" s="3" t="n"/>
       <c r="N23" s="3" t="n"/>
       <c r="O23" s="3" t="n"/>
-      <c r="P23" s="3" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="P23" s="3" t="n"/>
       <c r="Q23" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>NKA</t>
         </is>
       </c>
       <c r="R23" s="3" t="n"/>
@@ -1513,7 +1524,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is the severity of the event(s) experienced</t>
+          <t>A &lt;potentially traumatic experience attribute&gt; that is the severity of the event(s) experienced.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1521,17 +1532,18 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>intensity</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1550,7 +1562,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>An attribute of a potentially traumatic experience that is its chronicity.</t>
+          <t>A &lt;potentially traumatic experience attribute&gt; that is the chronicity, duration, and frequency of the event(s) experienced.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1558,12 +1570,12 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
@@ -1591,28 +1603,28 @@
         </is>
       </c>
       <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>event type</t>
-        </is>
-      </c>
+      <c r="F26" s="4" t="n"/>
       <c r="G26" s="4" t="n"/>
       <c r="H26" s="4" t="n"/>
-      <c r="I26" s="4" t="n"/>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>event type</t>
+        </is>
+      </c>
       <c r="J26" s="4" t="n"/>
       <c r="K26" s="4" t="n"/>
-      <c r="L26" s="4" t="n"/>
+      <c r="L26" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
       <c r="M26" s="4" t="n"/>
       <c r="N26" s="4" t="n"/>
       <c r="O26" s="4" t="n"/>
-      <c r="P26" s="4" t="inlineStr">
+      <c r="P26" s="4" t="n"/>
+      <c r="Q26" s="4" t="inlineStr">
         <is>
           <t>NKA; RW</t>
-        </is>
-      </c>
-      <c r="Q26" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
         </is>
       </c>
       <c r="R26" s="4" t="n"/>
@@ -1639,7 +1651,7 @@
           <t>occurrent</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1666,7 +1678,7 @@
           <t>process profile</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1693,7 +1705,7 @@
           <t>process</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>External</t>
         </is>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -549,12 +549,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>directness of potentially traumatic experience</t>
+          <t>directness of exposure to potentially traumatic experience</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A &lt;potentially traumatic experience attribute&gt; that is whether the event(s) experienced were physically experienced, witnessed, or communicated to the person.</t>
+          <t>A &lt;potentially traumatic experience attribute&gt; that is whether event(s) were physically experienced, witnessed, or communicated to the person.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -564,10 +564,9 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The directness of potentially traumatic experiences ranges from direct physical impact of an event, to personally witnessing an event, to hearing or learning about an event that happened to other persons (loved ones or others). </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t xml:space="preserve">The directness of a person's exposure to a potentially traumatic experience ranges from direct physical impact to one's body, to personally witnessing (seeing, hearing) event(s), to learning about event(s) that happened to other persons (loved ones or others). </t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>NKA</t>
@@ -1532,7 +1531,6 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>intensity</t>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A potentially traumatic experience that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
+          <t>A &lt;potentially traumatic experience&gt; that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1531,6 +1531,7 @@
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
           <t>intensity</t>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1283,51 +1283,65 @@
       <c r="S17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>BFO:0000003</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>An entity that unfolds itself in time or it is the instantaneous boundary of such an entity</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>TSTO:0000001</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>objective severity of potentially traumatic event(s)</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>The aspect of &lt;potentially traumatic experience severity&gt; that is an objective degree of intensity, damage, or risk</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience severity</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr"/>
+      <c r="F18" s="3" t="inlineStr"/>
+      <c r="G18" s="3" t="inlineStr"/>
+      <c r="H18" s="3" t="inlineStr"/>
+      <c r="I18" s="3" t="inlineStr"/>
+      <c r="J18" s="3" t="inlineStr"/>
+      <c r="K18" s="3" t="inlineStr"/>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr"/>
+      <c r="N18" s="3" t="inlineStr"/>
+      <c r="O18" s="3" t="inlineStr"/>
+      <c r="P18" s="3" t="inlineStr"/>
+      <c r="Q18" s="3" t="inlineStr"/>
+      <c r="R18" s="3" t="inlineStr"/>
+      <c r="S18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:015161</t>
+          <t>BFO:0000003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>personal history</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A history that is of a person.</t>
+          <t>An entity that unfolds itself in time or it is the instantaneous boundary of such an entity</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1339,342 +1353,346 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>BCIO:015161</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>personal history</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A history that is of a person.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>BCIO:050487</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A process that is part of a personal history.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000001</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>A personal history part that may lead to some traumatic stress response.</t>
         </is>
       </c>
-      <c r="D21" s="3" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>personal history part</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>Something that a person has experienced that may lead in some cases to some kind of traumatic stress response.</t>
         </is>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H21" s="3" t="inlineStr">
+      <c r="H22" s="3" t="inlineStr">
         <is>
           <t>PTEO</t>
         </is>
       </c>
-      <c r="I21" s="3" t="n"/>
-      <c r="J21" s="3" t="n"/>
-      <c r="K21" s="3" t="n"/>
-      <c r="L21" s="3" t="inlineStr">
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="M21" s="3" t="n"/>
-      <c r="N21" s="3" t="inlineStr">
+      <c r="M22" s="3" t="n"/>
+      <c r="N22" s="3" t="inlineStr">
         <is>
           <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
         </is>
       </c>
-      <c r="O21" s="3" t="n"/>
-      <c r="P21" s="3" t="n"/>
-      <c r="Q21" s="3" t="inlineStr">
+      <c r="O22" s="3" t="n"/>
+      <c r="P22" s="3" t="n"/>
+      <c r="Q22" s="3" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="R21" s="3" t="n"/>
-      <c r="S21" s="3" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="R22" s="3" t="n"/>
+      <c r="S22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>TSTO:0000016</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">potentially traumatic experience - degree of human agency </t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>A &lt;potentially traumatic experience attribute&gt; that is the degree of human agency involved in causing the event(s) experienced</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>The degree to which the causal process involved in the the event(s) which are/were experienced involved human agency / intention to harm.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>intentionality</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>TSTO:0000021</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
         </is>
       </c>
-      <c r="D23" s="3" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>Attributes of PTEs include their time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
         </is>
       </c>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
-      <c r="H23" s="3" t="n"/>
-      <c r="I23" s="3" t="n"/>
-      <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="n"/>
-      <c r="L23" s="3" t="inlineStr">
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
+      <c r="L24" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="M23" s="3" t="n"/>
-      <c r="N23" s="3" t="n"/>
-      <c r="O23" s="3" t="n"/>
-      <c r="P23" s="3" t="n"/>
-      <c r="Q23" s="3" t="inlineStr">
+      <c r="M24" s="3" t="n"/>
+      <c r="N24" s="3" t="n"/>
+      <c r="O24" s="3" t="n"/>
+      <c r="P24" s="3" t="n"/>
+      <c r="Q24" s="3" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
-      <c r="R23" s="3" t="n"/>
-      <c r="S23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>TSTO:0000018</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience severity</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>A &lt;potentially traumatic experience attribute&gt; that is the severity of the event(s) experienced.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
+      <c r="R24" s="3" t="n"/>
+      <c r="S24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>TSTO:0000018</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience severity</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A &lt;potentially traumatic experience attribute&gt; that is the severity of the event(s) experienced.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>The severity of a PTE relates to its degree of intensity, damage, or risk and includes both objective event factors and the subjective experience of the person.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>TSTO:0000019</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>potentially traumatic experience time course</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>A &lt;potentially traumatic experience attribute&gt; that is the chronicity, duration, and frequency of the event(s) experienced.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>NKA</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>TSTO:0000020</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>potentially traumatic experience type</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person.</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>potentially traumatic experience attribute</t>
         </is>
       </c>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
-      <c r="I26" s="4" t="inlineStr">
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+      <c r="G27" s="4" t="n"/>
+      <c r="H27" s="4" t="n"/>
+      <c r="I27" s="4" t="inlineStr">
         <is>
           <t>event type</t>
         </is>
       </c>
-      <c r="J26" s="4" t="n"/>
-      <c r="K26" s="4" t="n"/>
-      <c r="L26" s="4" t="inlineStr">
+      <c r="J27" s="4" t="n"/>
+      <c r="K27" s="4" t="n"/>
+      <c r="L27" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="M26" s="4" t="n"/>
-      <c r="N26" s="4" t="n"/>
-      <c r="O26" s="4" t="n"/>
-      <c r="P26" s="4" t="n"/>
-      <c r="Q26" s="4" t="inlineStr">
+      <c r="M27" s="4" t="n"/>
+      <c r="N27" s="4" t="n"/>
+      <c r="O27" s="4" t="n"/>
+      <c r="P27" s="4" t="n"/>
+      <c r="Q27" s="4" t="inlineStr">
         <is>
           <t>NKA; RW</t>
         </is>
       </c>
-      <c r="R26" s="4" t="n"/>
-      <c r="S26" s="4" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BFO:0000015</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>An occurrent that has temporal proper parts and for some time t.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
+      <c r="R27" s="4" t="n"/>
+      <c r="S27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BFO:0000015</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A process profile that is an attribute of a process.</t>
+          <t>An occurrent that has temporal proper parts and for some time t.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -1686,29 +1704,97 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>BCIO:043000</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>BFO:0000144</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>process profile</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>b is a process_profile =Def. there is some process c such that b process_profile_of c (axiom label in BFO2 Reference: [093-002])</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>TSTO:0000002</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>subjective severity of potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>The aspect of &lt;potentially traumatic experience severity&gt; that is severity (intensity, damage, risk) as subjectively experienced by a person</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience severity</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
+      <c r="G31" s="3" t="inlineStr"/>
+      <c r="H31" s="3" t="inlineStr"/>
+      <c r="I31" s="3" t="inlineStr"/>
+      <c r="J31" s="3" t="inlineStr"/>
+      <c r="K31" s="3" t="inlineStr"/>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="inlineStr"/>
+      <c r="N31" s="3" t="inlineStr"/>
+      <c r="O31" s="3" t="inlineStr"/>
+      <c r="P31" s="3" t="inlineStr"/>
+      <c r="Q31" s="3" t="inlineStr"/>
+      <c r="R31" s="3" t="inlineStr"/>
+      <c r="S31" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -1283,45 +1283,45 @@
       <c r="S17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000001</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>objective severity of potentially traumatic event(s)</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>The aspect of &lt;potentially traumatic experience severity&gt; that is an objective degree of intensity, damage, or risk</t>
         </is>
       </c>
-      <c r="D18" s="3" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience severity</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr"/>
-      <c r="G18" s="3" t="inlineStr"/>
-      <c r="H18" s="3" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr"/>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="inlineStr"/>
-      <c r="Q18" s="3" t="inlineStr"/>
-      <c r="R18" s="3" t="inlineStr"/>
-      <c r="S18" s="3" t="inlineStr"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1756,45 +1756,45 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>TSTO:0000002</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>subjective severity of potentially traumatic experience</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>The aspect of &lt;potentially traumatic experience severity&gt; that is severity (intensity, damage, risk) as subjectively experienced by a person</t>
         </is>
       </c>
-      <c r="D31" s="3" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>potentially traumatic experience severity</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="inlineStr"/>
-      <c r="H31" s="3" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr"/>
-      <c r="J31" s="3" t="inlineStr"/>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="M31" s="3" t="inlineStr"/>
-      <c r="N31" s="3" t="inlineStr"/>
-      <c r="O31" s="3" t="inlineStr"/>
-      <c r="P31" s="3" t="inlineStr"/>
-      <c r="Q31" s="3" t="inlineStr"/>
-      <c r="R31" s="3" t="inlineStr"/>
-      <c r="S31" s="3" t="inlineStr"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="n"/>
+      <c r="Q31" s="2" t="n"/>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -457,87 +457,87 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Definition</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BFO Entity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Entity URL</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Curation note</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Fuzzy class</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Logical definition</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>BFO Entity</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Entity URL</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Curation note</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Fuzzy class</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Curator</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Why fuzzy</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Curator</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
         </is>
       </c>
     </row>
@@ -554,15 +554,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience attribute&gt; that is whether event(s) were physically experienced, witnessed, or communicated to the person.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t xml:space="preserve">The directness of a person's exposure to a potentially traumatic experience ranges from direct physical impact to one's body, to personally witnessing (seeing, hearing) event(s), to learning about event(s) that happened to other persons (loved ones or others). </t>
         </is>
@@ -586,34 +586,34 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves actual (or potential) injury, without human intention to cause harm, and impacts one or a few people.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>includes sub-classes for road traffic accident, fall, animal attack, residential fire, sports-related, weapon-related (unintentional), choking, drowning</t>
+          <t>Something that happens which causes potential or actual unintended harm.  Note that DISASTERS are similar but usually impact more people and often (not always) natural forces.</t>
         </is>
       </c>
       <c r="O3" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves armed conflict between states or other military groups.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L4" s="2" t="n"/>
       <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for civilian exposure to warfare or armed conflict, combat exposure as a member of armed forces, deployment as a member of armed forces</t>
-        </is>
-      </c>
+      <c r="N4" s="2" t="n"/>
       <c r="O4" s="2" t="n"/>
       <c r="P4" s="2" t="n"/>
       <c r="Q4" s="2" t="inlineStr">
@@ -688,32 +688,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that is the death of a loved one.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
+        </is>
+      </c>
       <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I5" s="2" t="n"/>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L5" s="2" t="n"/>
       <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
-        </is>
-      </c>
+      <c r="N5" s="2" t="n"/>
       <c r="O5" s="2" t="n"/>
       <c r="P5" s="2" t="n"/>
       <c r="Q5" s="2" t="inlineStr">
@@ -737,32 +737,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves a sudden-onset occurrence created by natural or technological forces impacting a group of people defined by place or region</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L6" s="2" t="n"/>
       <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for natural disaster, technological disaster, transportation disaster (and each of those has multiple sub-classes)</t>
-        </is>
-      </c>
+      <c r="N6" s="2" t="n"/>
       <c r="O6" s="2" t="n"/>
       <c r="P6" s="2" t="n"/>
       <c r="Q6" s="2" t="inlineStr">
@@ -786,32 +786,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves being forced to provide labor against one's will</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for slavery, human trafficking</t>
+        </is>
+      </c>
       <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L7" s="2" t="n"/>
       <c r="M7" s="2" t="n"/>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for slavery, human trafficking</t>
-        </is>
-      </c>
+      <c r="N7" s="2" t="n"/>
       <c r="O7" s="2" t="n"/>
       <c r="P7" s="2" t="n"/>
       <c r="Q7" s="2" t="inlineStr">
@@ -835,32 +835,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; of some health-related event or treatment.</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L8" s="2" t="n"/>
       <c r="M8" s="2" t="n"/>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for injury, illness, treatment experiences (and each of these has sub-classes)</t>
-        </is>
-      </c>
+      <c r="N8" s="2" t="n"/>
       <c r="O8" s="2" t="n"/>
       <c r="P8" s="2" t="n"/>
       <c r="Q8" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves being held against one's will by a government or other state actor</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
+        </is>
+      </c>
       <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L9" s="2" t="n"/>
       <c r="M9" s="2" t="n"/>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for incarceration related to crime, concentration camp imprisonment, political imprisonment, war imprisonment </t>
-        </is>
-      </c>
+      <c r="N9" s="2" t="n"/>
       <c r="O9" s="2" t="n"/>
       <c r="P9" s="2" t="n"/>
       <c r="Q9" s="2" t="inlineStr">
@@ -933,32 +933,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves abuse that occurs in a familial or caretaking relationship and that may include physical violence</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L10" s="2" t="n"/>
       <c r="M10" s="2" t="n"/>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes: child physical abuse, child sexual abuse, intimate partner violence, elder abuse</t>
-        </is>
-      </c>
+      <c r="N10" s="2" t="n"/>
       <c r="O10" s="2" t="n"/>
       <c r="P10" s="2" t="n"/>
       <c r="Q10" s="2" t="inlineStr">
@@ -982,32 +982,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves violence directed at an individual by a person outside their household</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
+        </is>
+      </c>
       <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="n"/>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for physical assault, sexual assault, homicide, abduction-kidnapping, hostage taking, torture</t>
-        </is>
-      </c>
+      <c r="N11" s="2" t="n"/>
       <c r="O11" s="2" t="n"/>
       <c r="P11" s="2" t="n"/>
       <c r="Q11" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves violence directed at a group of people</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
+        </is>
+      </c>
       <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="n"/>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for mass injury or homicide, terrorism, genocide</t>
-        </is>
-      </c>
+      <c r="N12" s="2" t="n"/>
       <c r="O12" s="2" t="n"/>
       <c r="P12" s="2" t="n"/>
       <c r="Q12" s="2" t="inlineStr">
@@ -1080,32 +1080,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves  sudden or forced displacement from one's home or home area because of physical or political danger</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
+        </is>
+      </c>
       <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I13" s="2" t="n"/>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="n"/>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>might include sub-classes for refugee experiences, forced migration, prolonged displacement, climate-related displacement</t>
-        </is>
-      </c>
+      <c r="N13" s="2" t="n"/>
       <c r="O13" s="2" t="n"/>
       <c r="P13" s="2" t="n"/>
       <c r="Q13" s="2" t="inlineStr">
@@ -1129,32 +1129,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves adverse events related to a person's racial or ethnic identity</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
+        </is>
+      </c>
       <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="n"/>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="n"/>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>includes sub-classes for experiences of racism, hate crimes, micro-agressions, generational trauma</t>
-        </is>
-      </c>
+      <c r="N14" s="2" t="n"/>
       <c r="O14" s="2" t="n"/>
       <c r="P14" s="2" t="n"/>
       <c r="Q14" s="2" t="inlineStr">
@@ -1178,32 +1178,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience&gt; that involves exposure to violence or threat of violence in the social and physical environment outside the person's household.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
+        </is>
+      </c>
       <c r="G15" s="2" t="n"/>
-      <c r="H15" s="2" t="n"/>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="n"/>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="n"/>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">includes sub-classes for community evironment of violence; school enviroment of violence; workplace enviroment of violence; environment of violence related to gender, ethnicity or other marginalized identity  </t>
-        </is>
-      </c>
+      <c r="N15" s="2" t="n"/>
       <c r="O15" s="2" t="n"/>
       <c r="P15" s="2" t="n"/>
       <c r="Q15" s="2" t="inlineStr">
@@ -1227,15 +1227,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>A process that is the sum of the totality of processes taking place in the spatiotemporal region occupied by a material entity or site, including processes on the surface of the entity or within the cavities to which it serves as host</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1254,26 +1254,26 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>A personal attribute that is the kinship connection of the person a person who has has a specified potentially traumatic experience.</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
         </is>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="n"/>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="n"/>
       <c r="N17" s="2" t="n"/>
       <c r="O17" s="2" t="n"/>
@@ -1283,45 +1283,45 @@
       <c r="S17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>TSTO:0000001</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>TSTO:0000023</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>objective severity of potentially traumatic event(s)</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>potentially traumatic experience severity</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>The aspect of &lt;potentially traumatic experience severity&gt; that is an objective degree of intensity, damage, or risk</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience severity</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="N18" s="3" t="n"/>
+      <c r="O18" s="3" t="n"/>
+      <c r="P18" s="3" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="n"/>
+      <c r="S18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1336,15 +1336,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>An entity that unfolds itself in time or it is the instantaneous boundary of such an entity</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1363,15 +1363,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>A history that is of a person.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1390,15 +1390,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>A process that is part of a personal history.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1417,20 +1417,20 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
+          <t>personal history part</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
           <t>A personal history part that may lead to some traumatic stress response.</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>personal history part</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>Something that a person has experienced that may lead in some cases to some kind of traumatic stress response.</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
+        </is>
+      </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
           <t>process</t>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>PTEO</t>
+          <t>Proposed</t>
         </is>
       </c>
       <c r="I22" s="3" t="n"/>
@@ -1446,13 +1446,13 @@
       <c r="K22" s="3" t="n"/>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>PTEO</t>
         </is>
       </c>
       <c r="M22" s="3" t="n"/>
       <c r="N22" s="3" t="inlineStr">
         <is>
-          <t>The use of 'may lead to' is to be interpreted as in at least one case having done so. The focus on 'experience' is designed to recognise that there are other semantic hierarchies for events such as disasters, accidents etc. and that this hierarchy is aimed at classifying the experience of these not the events themselves.</t>
+          <t>Something that a person has experienced that may lead in some cases to some kind of traumatic stress response.</t>
         </is>
       </c>
       <c r="O22" s="3" t="n"/>
@@ -1478,22 +1478,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience attribute&gt; that is the degree of human agency involved in causing the event(s) experienced</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>intentionality</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>The degree to which the causal process involved in the the event(s) which are/were experienced involved human agency / intention to harm.</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>intentionality</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -1515,32 +1515,32 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">A characteristic of a potentially traumatic experience </t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>process attribute</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>Attributes of PTEs include their time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
-        </is>
-      </c>
+      <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
-      <c r="H24" s="3" t="n"/>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="I24" s="3" t="n"/>
       <c r="J24" s="3" t="n"/>
       <c r="K24" s="3" t="n"/>
-      <c r="L24" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="L24" s="3" t="n"/>
       <c r="M24" s="3" t="n"/>
-      <c r="N24" s="3" t="n"/>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>Attributes of PTEs include their time course, severity, degree of human agency involved in the event, nature of exposure (direct vs indirect)</t>
+        </is>
+      </c>
       <c r="O24" s="3" t="n"/>
       <c r="P24" s="3" t="n"/>
       <c r="Q24" s="3" t="inlineStr">
@@ -1564,27 +1564,27 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience attribute&gt; that is the severity of the event(s) experienced.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>The severity of a PTE relates to its degree of intensity, damage, or risk and includes both objective event factors and the subjective experience of the person.</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>intensity</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Severity might be seen as a combination of several other attributes listed here - but I think we often think of this as an independent dimension.  Should there be sub-classes for obective severity and subjective or perceived severity, or for objective and perceived life threat?   - to be discussed with colleagues</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -1606,15 +1606,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>A &lt;potentially traumatic experience attribute&gt; that is the chronicity, duration, and frequency of the event(s) experienced.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>include sub-classes for chronicity, frequency, duration, age at onset</t>
         </is>
@@ -1638,30 +1638,30 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
+          <t>potentially traumatic experience attribute</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
           <t>An attribute of a potentially traumatic experience that is the type of event(s) experienced by a person.</t>
         </is>
       </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience attribute</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="n"/>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>event type</t>
+        </is>
+      </c>
       <c r="F27" s="4" t="n"/>
       <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
-      <c r="I27" s="4" t="inlineStr">
-        <is>
-          <t>event type</t>
-        </is>
-      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="n"/>
       <c r="J27" s="4" t="n"/>
       <c r="K27" s="4" t="n"/>
-      <c r="L27" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
+      <c r="L27" s="4" t="n"/>
       <c r="M27" s="4" t="n"/>
       <c r="N27" s="4" t="n"/>
       <c r="O27" s="4" t="n"/>
@@ -1687,15 +1687,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>An occurrent that has temporal proper parts and for some time t.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1714,15 +1714,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>A process profile that is an attribute of a process.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1741,15 +1741,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>b is a process_profile =Def. there is some process c such that b process_profile_of c (axiom label in BFO2 Reference: [093-002])</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
@@ -1768,26 +1768,26 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>potentially traumatic experience severity</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
           <t>The aspect of &lt;potentially traumatic experience severity&gt; that is severity (intensity, damage, risk) as subjectively experienced by a person</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>potentially traumatic experience severity</t>
         </is>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
       <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>Pre-proposed</t>
+        </is>
+      </c>
       <c r="I31" s="2" t="n"/>
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
+      <c r="L31" s="2" t="n"/>
       <c r="M31" s="2" t="n"/>
       <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="n"/>

--- a/TSO classes.xlsx
+++ b/TSO classes.xlsx
@@ -676,60 +676,56 @@
       <c r="S4" s="2" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>TSTO:0000002</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>TSTO:0000024</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">experience of bereavement </t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>potentially traumatic experience</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>A &lt;potentially traumatic experience&gt; that is the death of a loved one.</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>need to consult with colleages about sub-classes - probably traumatic bereavement and others</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Pre-proposed</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
-      <c r="M5" s="2" t="n"/>
-      <c r="N5" s="2" t="n"/>
-      <c r="O5" s="2" t="n"/>
-      <c r="P5" s="2" t="n"/>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>NKA</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="n"/>
-      <c r="S5" s="2" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>NKA</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>TSTO:0000003</t>
-        </is>
-      </c>
+      <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>experience of disaster</t>
@@ -1756,11 +1752,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>TSTO:0000002</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="inlineStr"/>
       <c r="B31" s="2" t="inlineStr">
         <is>
           <t>subjective severity of potentially traumatic experience</t>
